--- a/soal-logic/soal-logic.xlsx
+++ b/soal-logic/soal-logic.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronipur/Boocampt-Academy/bootcamp-2023-06/soal-logic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronipur/Boocampt-Academy/bootcamp-mei-2023/soal-logic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF7A72-25B4-154F-B3FE-B3AFCE445375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46BA1F-B9F3-F842-8E70-C26DA255F489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" activeTab="2" xr2:uid="{F749A060-04AE-8C45-B9BA-595AE7E4A8E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" activeTab="3" xr2:uid="{F749A060-04AE-8C45-B9BA-595AE7E4A8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Logic-01" sheetId="1" r:id="rId1"/>
     <sheet name="logic-02" sheetId="2" r:id="rId2"/>
     <sheet name="logic-03" sheetId="3" r:id="rId3"/>
+    <sheet name="logic-04" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Soal No. 1</t>
   </si>
@@ -168,12 +169,21 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>Soal 11b</t>
+  </si>
+  <si>
+    <t>Soal 12b</t>
+  </si>
+  <si>
+    <t>n = 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,8 +198,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,6 +395,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5741,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5F27F8-96AB-CD45-806B-7FBCE00CC10A}">
   <dimension ref="B1:BA64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="AM37" sqref="AM37"/>
+    <sheetView showGridLines="0" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5762,6 +5804,9 @@
       <c r="Z1" t="s">
         <v>29</v>
       </c>
+      <c r="AL1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -5771,6 +5816,9 @@
         <v>19</v>
       </c>
       <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5882,6 +5930,58 @@
       <c r="AI3" s="20">
         <f>AH3+1</f>
         <v>8</v>
+      </c>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="20">
+        <f>AM3+1</f>
+        <v>1</v>
+      </c>
+      <c r="AO3" s="20">
+        <f t="shared" ref="AO3" si="8">AN3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AP3" s="20">
+        <f t="shared" ref="AP3" si="9">AO3+1</f>
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="20">
+        <f t="shared" ref="AQ3" si="10">AP3+1</f>
+        <v>4</v>
+      </c>
+      <c r="AR3" s="20">
+        <f t="shared" ref="AR3" si="11">AQ3+1</f>
+        <v>5</v>
+      </c>
+      <c r="AS3" s="20">
+        <f t="shared" ref="AS3" si="12">AR3+1</f>
+        <v>6</v>
+      </c>
+      <c r="AT3" s="20">
+        <f t="shared" ref="AT3" si="13">AS3+1</f>
+        <v>7</v>
+      </c>
+      <c r="AU3" s="20">
+        <f>AT3+1</f>
+        <v>8</v>
+      </c>
+      <c r="AV3" s="20">
+        <f t="shared" ref="AV3:AY3" si="14">AU3+1</f>
+        <v>9</v>
+      </c>
+      <c r="AW3" s="20">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AX3" s="20">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="AY3" s="20">
+        <f t="shared" si="14"/>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.2">
@@ -5945,6 +6045,26 @@
       <c r="AI4" s="19">
         <v>1</v>
       </c>
+      <c r="AL4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
     </row>
     <row r="5" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B5" s="21">
@@ -6010,10 +6130,35 @@
       <c r="AI5" s="19">
         <v>5</v>
       </c>
+      <c r="AL5" s="21">
+        <f>AL4+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="19">
+        <v>5</v>
+      </c>
+      <c r="AV5" s="19">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
     </row>
     <row r="6" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B6" s="21">
-        <f t="shared" ref="B6:B11" si="8">B5+1</f>
+        <f t="shared" ref="B6:B11" si="15">B5+1</f>
         <v>2</v>
       </c>
       <c r="C6" s="19">
@@ -6032,7 +6177,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="N6" s="21">
-        <f t="shared" ref="N6:N11" si="9">N5+1</f>
+        <f t="shared" ref="N6:N11" si="16">N5+1</f>
         <v>2</v>
       </c>
       <c r="O6" s="19"/>
@@ -6055,7 +6200,7 @@
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
       <c r="Z6" s="21">
-        <f t="shared" ref="Z6:Z11" si="10">Z5+1</f>
+        <f t="shared" ref="Z6:Z11" si="17">Z5+1</f>
         <v>2</v>
       </c>
       <c r="AA6" s="19"/>
@@ -6075,18 +6220,47 @@
       <c r="AI6" s="19">
         <v>7</v>
       </c>
+      <c r="AL6" s="21">
+        <f t="shared" ref="AL6:AL11" si="18">AL5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19">
+        <v>11</v>
+      </c>
+      <c r="AT6" s="19">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="19">
+        <v>7</v>
+      </c>
+      <c r="AV6" s="19">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="19">
+        <v>11</v>
+      </c>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B7" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="C7" s="19">
-        <f t="shared" ref="C7:D7" si="11">D7+2</f>
+        <f t="shared" ref="C7:D7" si="19">D7+2</f>
         <v>19</v>
       </c>
       <c r="D7" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="E7" s="19">
@@ -6102,7 +6276,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="N7" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="O7" s="19"/>
@@ -6121,7 +6295,7 @@
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
       <c r="Z7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AA7" s="19"/>
@@ -6143,10 +6317,43 @@
       <c r="AI7" s="19">
         <v>19</v>
       </c>
+      <c r="AL7" s="21">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19">
+        <v>7</v>
+      </c>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19">
+        <v>13</v>
+      </c>
+      <c r="AS7" s="19">
+        <v>15</v>
+      </c>
+      <c r="AT7" s="19">
+        <v>17</v>
+      </c>
+      <c r="AU7" s="19">
+        <v>19</v>
+      </c>
+      <c r="AV7" s="19">
+        <v>17</v>
+      </c>
+      <c r="AW7" s="19">
+        <v>15</v>
+      </c>
+      <c r="AX7" s="19">
+        <v>13</v>
+      </c>
+      <c r="AY7" s="19"/>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B8" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C8" s="19">
@@ -6158,15 +6365,15 @@
         <v>23</v>
       </c>
       <c r="E8" s="19">
-        <f t="shared" ref="E8:G8" si="12">D8+2</f>
+        <f t="shared" ref="E8:G8" si="20">D8+2</f>
         <v>25</v>
       </c>
       <c r="F8" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="G8" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="H8" s="19"/>
@@ -6174,7 +6381,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="N8" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="O8" s="19"/>
@@ -6189,7 +6396,7 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="Z8" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="AA8" s="19"/>
@@ -6211,26 +6418,61 @@
       <c r="AI8" s="19">
         <v>21</v>
       </c>
+      <c r="AL8" s="21">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AR8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AS8" s="19">
+        <v>25</v>
+      </c>
+      <c r="AT8" s="19">
+        <v>23</v>
+      </c>
+      <c r="AU8" s="19">
+        <v>21</v>
+      </c>
+      <c r="AV8" s="19">
+        <v>23</v>
+      </c>
+      <c r="AW8" s="19">
+        <v>25</v>
+      </c>
+      <c r="AX8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AY8" s="19">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B9" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="C9" s="19">
-        <f t="shared" ref="C9:F9" si="13">D9+2</f>
+        <f t="shared" ref="C9:F9" si="21">D9+2</f>
         <v>41</v>
       </c>
       <c r="D9" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="E9" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="F9" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="G9" s="19">
@@ -6245,7 +6487,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="N9" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="O9" s="19"/>
@@ -6264,7 +6506,7 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="Z9" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="AA9" s="19"/>
@@ -6286,10 +6528,43 @@
       <c r="AI9" s="19">
         <v>17</v>
       </c>
+      <c r="AL9" s="21">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19">
+        <v>13</v>
+      </c>
+      <c r="AS9" s="19">
+        <v>15</v>
+      </c>
+      <c r="AT9" s="19">
+        <v>17</v>
+      </c>
+      <c r="AU9" s="19">
+        <v>19</v>
+      </c>
+      <c r="AV9" s="19">
+        <v>17</v>
+      </c>
+      <c r="AW9" s="19">
+        <v>15</v>
+      </c>
+      <c r="AX9" s="19">
+        <v>13</v>
+      </c>
+      <c r="AY9" s="19"/>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B10" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C10" s="19">
@@ -6301,29 +6576,29 @@
         <v>45</v>
       </c>
       <c r="E10" s="19">
-        <f t="shared" ref="E10:I10" si="14">D10+2</f>
+        <f t="shared" ref="E10:I10" si="22">D10+2</f>
         <v>47</v>
       </c>
       <c r="F10" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="G10" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>53</v>
       </c>
       <c r="I10" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="N10" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="O10" s="19"/>
@@ -6346,7 +6621,7 @@
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="Z10" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="AA10" s="19"/>
@@ -6366,34 +6641,63 @@
       <c r="AI10" s="19">
         <v>7</v>
       </c>
+      <c r="AL10" s="21">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19">
+        <v>11</v>
+      </c>
+      <c r="AT10" s="19">
+        <v>9</v>
+      </c>
+      <c r="AU10" s="19">
+        <v>7</v>
+      </c>
+      <c r="AV10" s="19">
+        <v>9</v>
+      </c>
+      <c r="AW10" s="19">
+        <v>11</v>
+      </c>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B11" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="C11" s="19">
-        <f t="shared" ref="C11:H11" si="15">D11+2</f>
+        <f t="shared" ref="C11:H11" si="23">D11+2</f>
         <v>71</v>
       </c>
       <c r="D11" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>69</v>
       </c>
       <c r="E11" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>67</v>
       </c>
       <c r="F11" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>65</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>61</v>
       </c>
       <c r="I11" s="19">
@@ -6406,7 +6710,7 @@
       </c>
       <c r="K11" s="19"/>
       <c r="N11" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="O11" s="19"/>
@@ -6433,7 +6737,7 @@
       </c>
       <c r="W11" s="19"/>
       <c r="Z11" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="AA11" s="19"/>
@@ -6451,6 +6755,31 @@
       <c r="AI11" s="19">
         <v>5</v>
       </c>
+      <c r="AL11" s="21">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AU11" s="19">
+        <v>5</v>
+      </c>
+      <c r="AV11" s="19">
+        <v>3</v>
+      </c>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B12" s="21">
@@ -6466,31 +6795,31 @@
         <v>75</v>
       </c>
       <c r="E12" s="19">
-        <f t="shared" ref="E12:K12" si="16">D12+2</f>
+        <f t="shared" ref="E12:K12" si="24">D12+2</f>
         <v>77</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>83</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="J12" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>87</v>
       </c>
       <c r="K12" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>89</v>
       </c>
       <c r="N12" s="21">
@@ -6541,6 +6870,27 @@
       <c r="AI12" s="19">
         <v>1</v>
       </c>
+      <c r="AL12" s="21">
+        <f>AL11+1</f>
+        <v>8</v>
+      </c>
+      <c r="AM12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
     </row>
     <row r="14" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -6552,6 +6902,9 @@
       <c r="Z14" t="s">
         <v>30</v>
       </c>
+      <c r="AL14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -6561,6 +6914,9 @@
         <v>19</v>
       </c>
       <c r="Z15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6574,27 +6930,27 @@
         <v>1</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" ref="E16:J16" si="17">D16+1</f>
+        <f t="shared" ref="E16:J16" si="25">D16+1</f>
         <v>2</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="J16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="K16" s="20">
@@ -6610,27 +6966,27 @@
         <v>1</v>
       </c>
       <c r="Q16" s="20">
-        <f t="shared" ref="Q16" si="18">P16+1</f>
+        <f t="shared" ref="Q16" si="26">P16+1</f>
         <v>2</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" ref="R16" si="19">Q16+1</f>
+        <f t="shared" ref="R16" si="27">Q16+1</f>
         <v>3</v>
       </c>
       <c r="S16" s="20">
-        <f t="shared" ref="S16" si="20">R16+1</f>
+        <f t="shared" ref="S16" si="28">R16+1</f>
         <v>4</v>
       </c>
       <c r="T16" s="20">
-        <f t="shared" ref="T16" si="21">S16+1</f>
+        <f t="shared" ref="T16" si="29">S16+1</f>
         <v>5</v>
       </c>
       <c r="U16" s="20">
-        <f t="shared" ref="U16" si="22">T16+1</f>
+        <f t="shared" ref="U16" si="30">T16+1</f>
         <v>6</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" ref="V16" si="23">U16+1</f>
+        <f t="shared" ref="V16" si="31">U16+1</f>
         <v>7</v>
       </c>
       <c r="W16" s="20">
@@ -6646,40 +7002,85 @@
         <v>1</v>
       </c>
       <c r="AC16" s="20">
-        <f t="shared" ref="AC16" si="24">AB16+1</f>
+        <f t="shared" ref="AC16" si="32">AB16+1</f>
         <v>2</v>
       </c>
       <c r="AD16" s="20">
-        <f t="shared" ref="AD16" si="25">AC16+1</f>
+        <f t="shared" ref="AD16" si="33">AC16+1</f>
         <v>3</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" ref="AE16" si="26">AD16+1</f>
+        <f t="shared" ref="AE16" si="34">AD16+1</f>
         <v>4</v>
       </c>
       <c r="AF16" s="20">
-        <f t="shared" ref="AF16" si="27">AE16+1</f>
+        <f t="shared" ref="AF16" si="35">AE16+1</f>
         <v>5</v>
       </c>
       <c r="AG16" s="20">
-        <f t="shared" ref="AG16" si="28">AF16+1</f>
+        <f t="shared" ref="AG16" si="36">AF16+1</f>
         <v>6</v>
       </c>
       <c r="AH16" s="20">
-        <f t="shared" ref="AH16" si="29">AG16+1</f>
+        <f t="shared" ref="AH16" si="37">AG16+1</f>
         <v>7</v>
       </c>
       <c r="AI16" s="20">
         <f>AH16+1</f>
         <v>8</v>
       </c>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="20">
+        <f>AM16+1</f>
+        <v>1</v>
+      </c>
+      <c r="AO16" s="20">
+        <f t="shared" ref="AO16" si="38">AN16+1</f>
+        <v>2</v>
+      </c>
+      <c r="AP16" s="20">
+        <f t="shared" ref="AP16" si="39">AO16+1</f>
+        <v>3</v>
+      </c>
+      <c r="AQ16" s="20">
+        <f t="shared" ref="AQ16" si="40">AP16+1</f>
+        <v>4</v>
+      </c>
+      <c r="AR16" s="20">
+        <f t="shared" ref="AR16" si="41">AQ16+1</f>
+        <v>5</v>
+      </c>
+      <c r="AS16" s="20">
+        <f t="shared" ref="AS16" si="42">AR16+1</f>
+        <v>6</v>
+      </c>
+      <c r="AT16" s="20">
+        <f t="shared" ref="AT16" si="43">AS16+1</f>
+        <v>7</v>
+      </c>
+      <c r="AU16" s="20">
+        <f>AT16+1</f>
+        <v>8</v>
+      </c>
+      <c r="AV16" s="20">
+        <f t="shared" ref="AV16:AY16" si="44">AU16+1</f>
+        <v>9</v>
+      </c>
+      <c r="AW16" s="20">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="AX16" s="20">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="AY16" s="20">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
       <c r="AZ16" s="13"/>
       <c r="BA16" s="13"/>
     </row>
@@ -6744,13 +7145,26 @@
       <c r="AI17" s="19">
         <v>1</v>
       </c>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
+      <c r="AL17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19">
+        <v>1</v>
+      </c>
       <c r="AZ17" s="13"/>
       <c r="BA17" s="13"/>
     </row>
@@ -6761,27 +7175,27 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19">
-        <f t="shared" ref="D18:I18" si="30">E18+2</f>
+        <f t="shared" ref="D18:I18" si="45">E18+2</f>
         <v>33</v>
       </c>
       <c r="E18" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>31</v>
       </c>
       <c r="F18" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>29</v>
       </c>
       <c r="G18" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>27</v>
       </c>
       <c r="H18" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>25</v>
       </c>
       <c r="I18" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="45"/>
         <v>23</v>
       </c>
       <c r="J18" s="19">
@@ -6830,19 +7244,37 @@
         <v>3</v>
       </c>
       <c r="AI18" s="19"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
+      <c r="AL18" s="21">
+        <f>AL17+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="19">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="19">
+        <v>3</v>
+      </c>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19">
+        <v>3</v>
+      </c>
+      <c r="AY18" s="19"/>
       <c r="AZ18" s="13"/>
       <c r="BA18" s="13"/>
     </row>
     <row r="19" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B19" s="21">
-        <f t="shared" ref="B19:B24" si="31">B18+1</f>
+        <f t="shared" ref="B19:B24" si="46">B18+1</f>
         <v>2</v>
       </c>
       <c r="C19" s="19"/>
@@ -6856,27 +7288,27 @@
         <v>37</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" ref="G19:K19" si="32">F19+2</f>
+        <f t="shared" ref="G19:K19" si="47">F19+2</f>
         <v>39</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>41</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>43</v>
       </c>
       <c r="J19" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>45</v>
       </c>
       <c r="K19" s="19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="47"/>
         <v>47</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" ref="N19:N24" si="33">N18+1</f>
+        <f t="shared" ref="N19:N24" si="48">N18+1</f>
         <v>2</v>
       </c>
       <c r="O19" s="19"/>
@@ -6899,7 +7331,7 @@
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="Z19" s="21">
-        <f t="shared" ref="Z19:Z24" si="34">Z18+1</f>
+        <f t="shared" ref="Z19:Z24" si="49">Z18+1</f>
         <v>2</v>
       </c>
       <c r="AA19" s="19">
@@ -6919,38 +7351,60 @@
       </c>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
+      <c r="AL19" s="21">
+        <f t="shared" ref="AL19:AL24" si="50">AL18+1</f>
+        <v>2</v>
+      </c>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19">
+        <v>11</v>
+      </c>
+      <c r="AP19" s="19">
+        <v>9</v>
+      </c>
+      <c r="AQ19" s="19">
+        <v>7</v>
+      </c>
+      <c r="AR19" s="19">
+        <v>9</v>
+      </c>
+      <c r="AS19" s="19">
+        <v>11</v>
+      </c>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19">
+        <v>5</v>
+      </c>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
       <c r="AZ19" s="13"/>
       <c r="BA19" s="13"/>
     </row>
     <row r="20" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B20" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19">
-        <f t="shared" ref="F20:I20" si="35">G20+2</f>
+        <f t="shared" ref="F20:I20" si="51">G20+2</f>
         <v>59</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>57</v>
       </c>
       <c r="H20" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>55</v>
       </c>
       <c r="I20" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>53</v>
       </c>
       <c r="J20" s="19">
@@ -6962,7 +7416,7 @@
         <v>49</v>
       </c>
       <c r="N20" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="O20" s="19"/>
@@ -6989,7 +7443,7 @@
       </c>
       <c r="W20" s="19"/>
       <c r="Z20" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="AA20" s="19">
@@ -7011,19 +7465,45 @@
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
+      <c r="AL20" s="21">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19">
+        <v>13</v>
+      </c>
+      <c r="AO20" s="19">
+        <v>15</v>
+      </c>
+      <c r="AP20" s="19">
+        <v>17</v>
+      </c>
+      <c r="AQ20" s="19">
+        <v>19</v>
+      </c>
+      <c r="AR20" s="19">
+        <v>17</v>
+      </c>
+      <c r="AS20" s="19">
+        <v>15</v>
+      </c>
+      <c r="AT20" s="19">
+        <v>13</v>
+      </c>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19">
+        <v>7</v>
+      </c>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
       <c r="AZ20" s="13"/>
       <c r="BA20" s="13"/>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B21" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="C21" s="19"/>
@@ -7039,19 +7519,19 @@
         <v>63</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" ref="I21:K21" si="36">H21+2</f>
+        <f t="shared" ref="I21:K21" si="52">H21+2</f>
         <v>65</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>67</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="52"/>
         <v>69</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="O21" s="19">
@@ -7082,7 +7562,7 @@
         <v>33</v>
       </c>
       <c r="Z21" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>4</v>
       </c>
       <c r="AA21" s="19">
@@ -7104,19 +7584,47 @@
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
+      <c r="AL21" s="21">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="AM21" s="19">
+        <v>29</v>
+      </c>
+      <c r="AN21" s="19">
+        <v>27</v>
+      </c>
+      <c r="AO21" s="19">
+        <v>25</v>
+      </c>
+      <c r="AP21" s="19">
+        <v>23</v>
+      </c>
+      <c r="AQ21" s="19">
+        <v>21</v>
+      </c>
+      <c r="AR21" s="19">
+        <v>23</v>
+      </c>
+      <c r="AS21" s="19">
+        <v>25</v>
+      </c>
+      <c r="AT21" s="19">
+        <v>27</v>
+      </c>
+      <c r="AU21" s="19">
+        <v>29</v>
+      </c>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
       <c r="AZ21" s="13"/>
       <c r="BA21" s="13"/>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B22" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="C22" s="19"/>
@@ -7125,11 +7633,11 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19">
-        <f t="shared" ref="H22:I22" si="37">I22+2</f>
+        <f t="shared" ref="H22:I22" si="53">I22+2</f>
         <v>77</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>75</v>
       </c>
       <c r="J22" s="19">
@@ -7141,7 +7649,7 @@
         <v>71</v>
       </c>
       <c r="N22" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="O22" s="19"/>
@@ -7168,7 +7676,7 @@
       </c>
       <c r="W22" s="19"/>
       <c r="Z22" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
       <c r="AA22" s="19">
@@ -7190,19 +7698,45 @@
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
+      <c r="AL22" s="21">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19">
+        <v>13</v>
+      </c>
+      <c r="AO22" s="19">
+        <v>15</v>
+      </c>
+      <c r="AP22" s="19">
+        <v>17</v>
+      </c>
+      <c r="AQ22" s="19">
+        <v>17</v>
+      </c>
+      <c r="AR22" s="19">
+        <v>17</v>
+      </c>
+      <c r="AS22" s="19">
+        <v>15</v>
+      </c>
+      <c r="AT22" s="19">
+        <v>13</v>
+      </c>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19">
+        <v>7</v>
+      </c>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
       <c r="AZ22" s="13"/>
       <c r="BA22" s="13"/>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B23" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="C23" s="19"/>
@@ -7224,7 +7758,7 @@
         <v>83</v>
       </c>
       <c r="N23" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="O23" s="19"/>
@@ -7247,7 +7781,7 @@
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
       <c r="Z23" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>6</v>
       </c>
       <c r="AA23" s="19">
@@ -7267,19 +7801,41 @@
       </c>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
+      <c r="AL23" s="21">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19">
+        <v>11</v>
+      </c>
+      <c r="AP23" s="19">
+        <v>9</v>
+      </c>
+      <c r="AQ23" s="19">
+        <v>7</v>
+      </c>
+      <c r="AR23" s="19">
+        <v>9</v>
+      </c>
+      <c r="AS23" s="19">
+        <v>11</v>
+      </c>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19">
+        <v>5</v>
+      </c>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
       <c r="AZ23" s="13"/>
       <c r="BA23" s="13"/>
     </row>
     <row r="24" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B24" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="C24" s="19"/>
@@ -7296,7 +7852,7 @@
         <v>85</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="O24" s="19"/>
@@ -7315,7 +7871,7 @@
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="Z24" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>7</v>
       </c>
       <c r="AA24" s="19">
@@ -7333,13 +7889,31 @@
         <v>3</v>
       </c>
       <c r="AI24" s="19"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
+      <c r="AL24" s="21">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19">
+        <v>3</v>
+      </c>
+      <c r="AQ24" s="19">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="19">
+        <v>3</v>
+      </c>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19">
+        <v>3</v>
+      </c>
+      <c r="AY24" s="19"/>
       <c r="AZ24" s="13"/>
       <c r="BA24" s="13"/>
     </row>
@@ -7391,6 +7965,27 @@
       <c r="AI25" s="19">
         <v>1</v>
       </c>
+      <c r="AL25" s="21">
+        <f>AL24+1</f>
+        <v>8</v>
+      </c>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -7424,27 +8019,27 @@
         <v>1</v>
       </c>
       <c r="E29" s="20">
-        <f t="shared" ref="E29:J29" si="38">D29+1</f>
+        <f t="shared" ref="E29:J29" si="54">D29+1</f>
         <v>2</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>7</v>
       </c>
       <c r="K29" s="20">
@@ -7460,27 +8055,27 @@
         <v>1</v>
       </c>
       <c r="Q29" s="20">
-        <f t="shared" ref="Q29" si="39">P29+1</f>
+        <f t="shared" ref="Q29" si="55">P29+1</f>
         <v>2</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" ref="R29" si="40">Q29+1</f>
+        <f t="shared" ref="R29" si="56">Q29+1</f>
         <v>3</v>
       </c>
       <c r="S29" s="20">
-        <f t="shared" ref="S29" si="41">R29+1</f>
+        <f t="shared" ref="S29" si="57">R29+1</f>
         <v>4</v>
       </c>
       <c r="T29" s="20">
-        <f t="shared" ref="T29" si="42">S29+1</f>
+        <f t="shared" ref="T29" si="58">S29+1</f>
         <v>5</v>
       </c>
       <c r="U29" s="20">
-        <f t="shared" ref="U29" si="43">T29+1</f>
+        <f t="shared" ref="U29" si="59">T29+1</f>
         <v>6</v>
       </c>
       <c r="V29" s="20">
-        <f t="shared" ref="V29" si="44">U29+1</f>
+        <f t="shared" ref="V29" si="60">U29+1</f>
         <v>7</v>
       </c>
       <c r="W29" s="20">
@@ -7496,27 +8091,27 @@
         <v>1</v>
       </c>
       <c r="AC29" s="20">
-        <f t="shared" ref="AC29" si="45">AB29+1</f>
+        <f t="shared" ref="AC29" si="61">AB29+1</f>
         <v>2</v>
       </c>
       <c r="AD29" s="20">
-        <f t="shared" ref="AD29" si="46">AC29+1</f>
+        <f t="shared" ref="AD29" si="62">AC29+1</f>
         <v>3</v>
       </c>
       <c r="AE29" s="20">
-        <f t="shared" ref="AE29" si="47">AD29+1</f>
+        <f t="shared" ref="AE29" si="63">AD29+1</f>
         <v>4</v>
       </c>
       <c r="AF29" s="20">
-        <f t="shared" ref="AF29" si="48">AE29+1</f>
+        <f t="shared" ref="AF29" si="64">AE29+1</f>
         <v>5</v>
       </c>
       <c r="AG29" s="20">
-        <f t="shared" ref="AG29" si="49">AF29+1</f>
+        <f t="shared" ref="AG29" si="65">AF29+1</f>
         <v>6</v>
       </c>
       <c r="AH29" s="20">
-        <f t="shared" ref="AH29" si="50">AG29+1</f>
+        <f t="shared" ref="AH29" si="66">AG29+1</f>
         <v>7</v>
       </c>
       <c r="AI29" s="20">
@@ -7536,23 +8131,23 @@
         <v>4</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" ref="E30:K30" si="51">D30+3</f>
+        <f t="shared" ref="E30:K30" si="67">D30+3</f>
         <v>7</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>10</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>13</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>16</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>19</v>
       </c>
       <c r="J30" s="19">
@@ -7560,7 +8155,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>25</v>
       </c>
       <c r="N30" s="21">
@@ -7598,27 +8193,27 @@
         <v>1</v>
       </c>
       <c r="C31" s="19">
-        <f t="shared" ref="C31:H31" si="52">D31+3</f>
+        <f t="shared" ref="C31:H31" si="68">D31+3</f>
         <v>49</v>
       </c>
       <c r="D31" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>46</v>
       </c>
       <c r="E31" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>43</v>
       </c>
       <c r="F31" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>40</v>
       </c>
       <c r="G31" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>37</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>34</v>
       </c>
       <c r="I31" s="19">
@@ -7669,7 +8264,7 @@
     </row>
     <row r="32" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B32" s="21">
-        <f t="shared" ref="B32:B37" si="53">B31+1</f>
+        <f t="shared" ref="B32:B37" si="69">B31+1</f>
         <v>2</v>
       </c>
       <c r="C32" s="19">
@@ -7681,29 +8276,29 @@
         <v>53</v>
       </c>
       <c r="E32" s="19">
-        <f t="shared" ref="E32:I32" si="54">D32+2</f>
+        <f t="shared" ref="E32:I32" si="70">D32+2</f>
         <v>55</v>
       </c>
       <c r="F32" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>57</v>
       </c>
       <c r="G32" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>59</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>61</v>
       </c>
       <c r="I32" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>63</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="N32" s="21">
-        <f t="shared" ref="N32:N37" si="55">N31+1</f>
+        <f t="shared" ref="N32:N37" si="71">N31+1</f>
         <v>2</v>
       </c>
       <c r="O32" s="19"/>
@@ -7726,7 +8321,7 @@
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="Z32" s="21">
-        <f t="shared" ref="Z32:Z37" si="56">Z31+1</f>
+        <f t="shared" ref="Z32:Z37" si="72">Z31+1</f>
         <v>2</v>
       </c>
       <c r="AA32" s="19"/>
@@ -7736,7 +8331,7 @@
       </c>
       <c r="AD32" s="22"/>
       <c r="AE32" s="19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF32" s="22"/>
       <c r="AG32" s="19">
@@ -7747,23 +8342,23 @@
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B33" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
       <c r="C33" s="19">
-        <f t="shared" ref="C33:F33" si="57">D33+3</f>
+        <f t="shared" ref="C33:F33" si="73">D33+3</f>
         <v>81</v>
       </c>
       <c r="D33" s="19">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>78</v>
       </c>
       <c r="E33" s="19">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>75</v>
       </c>
       <c r="F33" s="19">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>72</v>
       </c>
       <c r="G33" s="19">
@@ -7778,7 +8373,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="N33" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="O33" s="19"/>
@@ -7805,7 +8400,7 @@
       </c>
       <c r="W33" s="19"/>
       <c r="Z33" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
       <c r="AA33" s="19"/>
@@ -7814,11 +8409,11 @@
       </c>
       <c r="AC33" s="22"/>
       <c r="AD33" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE33" s="23"/>
       <c r="AF33" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG33" s="22"/>
       <c r="AH33" s="19">
@@ -7828,7 +8423,7 @@
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B34" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>4</v>
       </c>
       <c r="C34" s="19">
@@ -7840,15 +8435,15 @@
         <v>85</v>
       </c>
       <c r="E34" s="19">
-        <f t="shared" ref="E34:G34" si="58">D34+2</f>
+        <f t="shared" ref="E34:G34" si="74">D34+2</f>
         <v>87</v>
       </c>
       <c r="F34" s="19">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>89</v>
       </c>
       <c r="G34" s="19">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>91</v>
       </c>
       <c r="H34" s="19"/>
@@ -7856,7 +8451,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="N34" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="O34" s="19">
@@ -7887,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="Z34" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>4</v>
       </c>
       <c r="AA34" s="19">
@@ -7895,15 +8490,15 @@
       </c>
       <c r="AB34" s="22"/>
       <c r="AC34" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD34" s="23"/>
       <c r="AE34" s="19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF34" s="23"/>
       <c r="AG34" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH34" s="22"/>
       <c r="AI34" s="19">
@@ -7912,15 +8507,15 @@
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>5</v>
       </c>
       <c r="C35" s="19">
-        <f t="shared" ref="C35:D35" si="59">D35+3</f>
+        <f t="shared" ref="C35:D35" si="75">D35+3</f>
         <v>103</v>
       </c>
       <c r="D35" s="19">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>100</v>
       </c>
       <c r="E35" s="19">
@@ -7937,7 +8532,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="N35" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
       <c r="O35" s="19"/>
@@ -7964,7 +8559,7 @@
       </c>
       <c r="W35" s="19"/>
       <c r="Z35" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>5</v>
       </c>
       <c r="AA35" s="19"/>
@@ -7973,11 +8568,11 @@
       </c>
       <c r="AC35" s="22"/>
       <c r="AD35" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE35" s="23"/>
       <c r="AF35" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG35" s="22"/>
       <c r="AH35" s="19">
@@ -7987,7 +8582,7 @@
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>6</v>
       </c>
       <c r="C36" s="19">
@@ -7995,11 +8590,11 @@
         <v>105</v>
       </c>
       <c r="D36" s="19">
-        <f t="shared" ref="D36:E36" si="60">D35+2</f>
+        <f t="shared" ref="D36:E36" si="76">D35+2</f>
         <v>102</v>
       </c>
       <c r="E36" s="19">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>99</v>
       </c>
       <c r="F36" s="19"/>
@@ -8009,7 +8604,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="N36" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>6</v>
       </c>
       <c r="O36" s="19"/>
@@ -8032,7 +8627,7 @@
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
       <c r="Z36" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>6</v>
       </c>
       <c r="AA36" s="19"/>
@@ -8042,7 +8637,7 @@
       </c>
       <c r="AD36" s="22"/>
       <c r="AE36" s="19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF36" s="22"/>
       <c r="AG36" s="19">
@@ -8053,7 +8648,7 @@
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>7</v>
       </c>
       <c r="C37" s="19">
@@ -8072,7 +8667,7 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="N37" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>7</v>
       </c>
       <c r="O37" s="19"/>
@@ -8091,7 +8686,7 @@
       <c r="V37" s="19"/>
       <c r="W37" s="19"/>
       <c r="Z37" s="21">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>7</v>
       </c>
       <c r="AA37" s="19"/>
@@ -8188,27 +8783,27 @@
         <v>1</v>
       </c>
       <c r="E42" s="20">
-        <f t="shared" ref="E42" si="61">D42+1</f>
+        <f t="shared" ref="E42" si="77">D42+1</f>
         <v>2</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" ref="F42" si="62">E42+1</f>
+        <f t="shared" ref="F42" si="78">E42+1</f>
         <v>3</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" ref="G42" si="63">F42+1</f>
+        <f t="shared" ref="G42" si="79">F42+1</f>
         <v>4</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" ref="H42" si="64">G42+1</f>
+        <f t="shared" ref="H42" si="80">G42+1</f>
         <v>5</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" ref="I42" si="65">H42+1</f>
+        <f t="shared" ref="I42" si="81">H42+1</f>
         <v>6</v>
       </c>
       <c r="J42" s="20">
-        <f t="shared" ref="J42" si="66">I42+1</f>
+        <f t="shared" ref="J42" si="82">I42+1</f>
         <v>7</v>
       </c>
       <c r="K42" s="20">
@@ -8224,27 +8819,27 @@
         <v>1</v>
       </c>
       <c r="Q42" s="20">
-        <f t="shared" ref="Q42" si="67">P42+1</f>
+        <f t="shared" ref="Q42" si="83">P42+1</f>
         <v>2</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" ref="R42" si="68">Q42+1</f>
+        <f t="shared" ref="R42" si="84">Q42+1</f>
         <v>3</v>
       </c>
       <c r="S42" s="20">
-        <f t="shared" ref="S42" si="69">R42+1</f>
+        <f t="shared" ref="S42" si="85">R42+1</f>
         <v>4</v>
       </c>
       <c r="T42" s="20">
-        <f t="shared" ref="T42" si="70">S42+1</f>
+        <f t="shared" ref="T42" si="86">S42+1</f>
         <v>5</v>
       </c>
       <c r="U42" s="20">
-        <f t="shared" ref="U42" si="71">T42+1</f>
+        <f t="shared" ref="U42" si="87">T42+1</f>
         <v>6</v>
       </c>
       <c r="V42" s="20">
-        <f t="shared" ref="V42" si="72">U42+1</f>
+        <f t="shared" ref="V42" si="88">U42+1</f>
         <v>7</v>
       </c>
       <c r="W42" s="20">
@@ -8260,27 +8855,27 @@
         <v>1</v>
       </c>
       <c r="AC42" s="20">
-        <f t="shared" ref="AC42" si="73">AB42+1</f>
+        <f t="shared" ref="AC42" si="89">AB42+1</f>
         <v>2</v>
       </c>
       <c r="AD42" s="20">
-        <f t="shared" ref="AD42" si="74">AC42+1</f>
+        <f t="shared" ref="AD42" si="90">AC42+1</f>
         <v>3</v>
       </c>
       <c r="AE42" s="20">
-        <f t="shared" ref="AE42" si="75">AD42+1</f>
+        <f t="shared" ref="AE42" si="91">AD42+1</f>
         <v>4</v>
       </c>
       <c r="AF42" s="20">
-        <f t="shared" ref="AF42" si="76">AE42+1</f>
+        <f t="shared" ref="AF42" si="92">AE42+1</f>
         <v>5</v>
       </c>
       <c r="AG42" s="20">
-        <f t="shared" ref="AG42" si="77">AF42+1</f>
+        <f t="shared" ref="AG42" si="93">AF42+1</f>
         <v>6</v>
       </c>
       <c r="AH42" s="20">
-        <f t="shared" ref="AH42" si="78">AG42+1</f>
+        <f t="shared" ref="AH42" si="94">AG42+1</f>
         <v>7</v>
       </c>
       <c r="AI42" s="20">
@@ -8324,28 +8919,28 @@
         <v>1</v>
       </c>
       <c r="AB43" s="19">
-        <f t="shared" ref="AB43:AB49" si="79">AB44+2</f>
+        <f t="shared" ref="AB43:AB49" si="95">AB44+2</f>
         <v>35</v>
       </c>
       <c r="AC43" s="19">
         <v>37</v>
       </c>
       <c r="AD43" s="19">
-        <f t="shared" ref="AD43:AD49" si="80">AD44+2</f>
+        <f t="shared" ref="AD43:AD49" si="96">AD44+2</f>
         <v>71</v>
       </c>
       <c r="AE43" s="19">
         <v>73</v>
       </c>
       <c r="AF43" s="19">
-        <f t="shared" ref="AF43:AF49" si="81">AF44+2</f>
+        <f t="shared" ref="AF43:AF49" si="97">AF44+2</f>
         <v>107</v>
       </c>
       <c r="AG43" s="19">
         <v>109</v>
       </c>
       <c r="AH43" s="19">
-        <f t="shared" ref="AH43:AH49" si="82">AH44+2</f>
+        <f t="shared" ref="AH43:AH49" si="98">AH44+2</f>
         <v>143</v>
       </c>
       <c r="AI43" s="19">
@@ -8399,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="AB44" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>33</v>
       </c>
       <c r="AC44" s="19">
@@ -8407,7 +9002,7 @@
         <v>39</v>
       </c>
       <c r="AD44" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>69</v>
       </c>
       <c r="AE44" s="19">
@@ -8415,7 +9010,7 @@
         <v>75</v>
       </c>
       <c r="AF44" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>105</v>
       </c>
       <c r="AG44" s="19">
@@ -8423,7 +9018,7 @@
         <v>111</v>
       </c>
       <c r="AH44" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>141</v>
       </c>
       <c r="AI44" s="19">
@@ -8433,7 +9028,7 @@
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" s="21">
-        <f t="shared" ref="B45:B50" si="83">B44+1</f>
+        <f t="shared" ref="B45:B50" si="99">B44+1</f>
         <v>2</v>
       </c>
       <c r="C45" s="19"/>
@@ -8452,7 +9047,7 @@
         <v>7</v>
       </c>
       <c r="N45" s="21">
-        <f t="shared" ref="N45:N50" si="84">N44+1</f>
+        <f t="shared" ref="N45:N50" si="100">N44+1</f>
         <v>2</v>
       </c>
       <c r="O45" s="19"/>
@@ -8475,49 +9070,49 @@
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
       <c r="Z45" s="21">
-        <f t="shared" ref="Z45:Z50" si="85">Z44+1</f>
+        <f t="shared" ref="Z45:Z50" si="101">Z44+1</f>
         <v>2</v>
       </c>
       <c r="AA45" s="19">
-        <f t="shared" ref="AA45:AA51" si="86">AA44+2</f>
+        <f t="shared" ref="AA45:AA51" si="102">AA44+2</f>
         <v>5</v>
       </c>
       <c r="AB45" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>31</v>
       </c>
       <c r="AC45" s="19">
-        <f t="shared" ref="AC45:AC51" si="87">AC44+2</f>
+        <f t="shared" ref="AC45:AC51" si="103">AC44+2</f>
         <v>41</v>
       </c>
       <c r="AD45" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>67</v>
       </c>
       <c r="AE45" s="19">
-        <f t="shared" ref="AE45:AE51" si="88">AE44+2</f>
+        <f t="shared" ref="AE45:AE51" si="104">AE44+2</f>
         <v>77</v>
       </c>
       <c r="AF45" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>103</v>
       </c>
       <c r="AG45" s="19">
-        <f t="shared" ref="AG45:AG51" si="89">AG44+2</f>
+        <f t="shared" ref="AG45:AG51" si="105">AG44+2</f>
         <v>113</v>
       </c>
       <c r="AH45" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>139</v>
       </c>
       <c r="AI45" s="19">
-        <f t="shared" ref="AI45:AI51" si="90">AI44+2</f>
+        <f t="shared" ref="AI45:AI51" si="106">AI44+2</f>
         <v>149</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>3</v>
       </c>
       <c r="C46" s="19"/>
@@ -8538,7 +9133,7 @@
         <v>19</v>
       </c>
       <c r="N46" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>3</v>
       </c>
       <c r="O46" s="19"/>
@@ -8565,49 +9160,49 @@
       </c>
       <c r="W46" s="19"/>
       <c r="Z46" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>3</v>
       </c>
       <c r="AA46" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>7</v>
       </c>
       <c r="AB46" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>29</v>
       </c>
       <c r="AC46" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>43</v>
       </c>
       <c r="AD46" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>65</v>
       </c>
       <c r="AE46" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>79</v>
       </c>
       <c r="AF46" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>101</v>
       </c>
       <c r="AG46" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>115</v>
       </c>
       <c r="AH46" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>137</v>
       </c>
       <c r="AI46" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="106"/>
         <v>151</v>
       </c>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>4</v>
       </c>
       <c r="C47" s="19"/>
@@ -8630,7 +9225,7 @@
         <v>21</v>
       </c>
       <c r="N47" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>4</v>
       </c>
       <c r="O47" s="19">
@@ -8661,49 +9256,49 @@
         <v>1</v>
       </c>
       <c r="Z47" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>4</v>
       </c>
       <c r="AA47" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>9</v>
       </c>
       <c r="AB47" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>27</v>
       </c>
       <c r="AC47" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>45</v>
       </c>
       <c r="AD47" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>63</v>
       </c>
       <c r="AE47" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>81</v>
       </c>
       <c r="AF47" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>99</v>
       </c>
       <c r="AG47" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>117</v>
       </c>
       <c r="AH47" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>135</v>
       </c>
       <c r="AI47" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="106"/>
         <v>153</v>
       </c>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B48" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
       <c r="C48" s="19"/>
@@ -8728,7 +9323,7 @@
         <v>41</v>
       </c>
       <c r="N48" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>5</v>
       </c>
       <c r="O48" s="19"/>
@@ -8755,49 +9350,49 @@
       </c>
       <c r="W48" s="19"/>
       <c r="Z48" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>5</v>
       </c>
       <c r="AA48" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>11</v>
       </c>
       <c r="AB48" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>25</v>
       </c>
       <c r="AC48" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>47</v>
       </c>
       <c r="AD48" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>61</v>
       </c>
       <c r="AE48" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>83</v>
       </c>
       <c r="AF48" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>97</v>
       </c>
       <c r="AG48" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>119</v>
       </c>
       <c r="AH48" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>133</v>
       </c>
       <c r="AI48" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="106"/>
         <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B49" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>6</v>
       </c>
       <c r="C49" s="19"/>
@@ -8824,7 +9419,7 @@
         <v>43</v>
       </c>
       <c r="N49" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>6</v>
       </c>
       <c r="O49" s="19"/>
@@ -8847,49 +9442,49 @@
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
       <c r="Z49" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>6</v>
       </c>
       <c r="AA49" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>13</v>
       </c>
       <c r="AB49" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="95"/>
         <v>23</v>
       </c>
       <c r="AC49" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>49</v>
       </c>
       <c r="AD49" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="96"/>
         <v>59</v>
       </c>
       <c r="AE49" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>85</v>
       </c>
       <c r="AF49" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="97"/>
         <v>95</v>
       </c>
       <c r="AG49" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>121</v>
       </c>
       <c r="AH49" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="98"/>
         <v>131</v>
       </c>
       <c r="AI49" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="106"/>
         <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B50" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="99"/>
         <v>7</v>
       </c>
       <c r="C50" s="19"/>
@@ -8918,7 +9513,7 @@
         <v>71</v>
       </c>
       <c r="N50" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>7</v>
       </c>
       <c r="O50" s="19"/>
@@ -8937,11 +9532,11 @@
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
       <c r="Z50" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>7</v>
       </c>
       <c r="AA50" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>15</v>
       </c>
       <c r="AB50" s="19">
@@ -8949,7 +9544,7 @@
         <v>21</v>
       </c>
       <c r="AC50" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>51</v>
       </c>
       <c r="AD50" s="19">
@@ -8957,7 +9552,7 @@
         <v>57</v>
       </c>
       <c r="AE50" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>87</v>
       </c>
       <c r="AF50" s="19">
@@ -8965,7 +9560,7 @@
         <v>93</v>
       </c>
       <c r="AG50" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>123</v>
       </c>
       <c r="AH50" s="19">
@@ -8973,7 +9568,7 @@
         <v>129</v>
       </c>
       <c r="AI50" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="106"/>
         <v>159</v>
       </c>
     </row>
@@ -9029,35 +9624,35 @@
         <v>8</v>
       </c>
       <c r="AA51" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="102"/>
         <v>17</v>
       </c>
       <c r="AB51" s="19">
         <v>19</v>
       </c>
       <c r="AC51" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="103"/>
         <v>53</v>
       </c>
       <c r="AD51" s="19">
         <v>55</v>
       </c>
       <c r="AE51" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="104"/>
         <v>89</v>
       </c>
       <c r="AF51" s="19">
         <v>91</v>
       </c>
       <c r="AG51" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="105"/>
         <v>125</v>
       </c>
       <c r="AH51" s="19">
         <v>127</v>
       </c>
       <c r="AI51" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="106"/>
         <v>161</v>
       </c>
     </row>
@@ -9087,27 +9682,27 @@
         <v>1</v>
       </c>
       <c r="E55" s="20">
-        <f t="shared" ref="E55:J55" si="91">D55+1</f>
+        <f t="shared" ref="E55:J55" si="107">D55+1</f>
         <v>2</v>
       </c>
       <c r="F55" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>3</v>
       </c>
       <c r="G55" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>4</v>
       </c>
       <c r="H55" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>5</v>
       </c>
       <c r="I55" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>6</v>
       </c>
       <c r="J55" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>7</v>
       </c>
       <c r="K55" s="20">
@@ -9123,27 +9718,27 @@
         <v>1</v>
       </c>
       <c r="Q55" s="20">
-        <f t="shared" ref="Q55" si="92">P55+1</f>
+        <f t="shared" ref="Q55" si="108">P55+1</f>
         <v>2</v>
       </c>
       <c r="R55" s="20">
-        <f t="shared" ref="R55" si="93">Q55+1</f>
+        <f t="shared" ref="R55" si="109">Q55+1</f>
         <v>3</v>
       </c>
       <c r="S55" s="20">
-        <f t="shared" ref="S55" si="94">R55+1</f>
+        <f t="shared" ref="S55" si="110">R55+1</f>
         <v>4</v>
       </c>
       <c r="T55" s="20">
-        <f t="shared" ref="T55" si="95">S55+1</f>
+        <f t="shared" ref="T55" si="111">S55+1</f>
         <v>5</v>
       </c>
       <c r="U55" s="20">
-        <f t="shared" ref="U55" si="96">T55+1</f>
+        <f t="shared" ref="U55" si="112">T55+1</f>
         <v>6</v>
       </c>
       <c r="V55" s="20">
-        <f t="shared" ref="V55" si="97">U55+1</f>
+        <f t="shared" ref="V55" si="113">U55+1</f>
         <v>7</v>
       </c>
       <c r="W55" s="20">
@@ -9227,7 +9822,7 @@
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B58" s="21">
-        <f t="shared" ref="B58:B63" si="98">B57+1</f>
+        <f t="shared" ref="B58:B63" si="114">B57+1</f>
         <v>2</v>
       </c>
       <c r="C58" s="19">
@@ -9252,7 +9847,7 @@
         <v>7</v>
       </c>
       <c r="N58" s="21">
-        <f t="shared" ref="N58:N63" si="99">N57+1</f>
+        <f t="shared" ref="N58:N63" si="115">N57+1</f>
         <v>2</v>
       </c>
       <c r="O58" s="19"/>
@@ -9277,7 +9872,7 @@
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B59" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>3</v>
       </c>
       <c r="C59" s="19">
@@ -9306,7 +9901,7 @@
         <v>19</v>
       </c>
       <c r="N59" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>3</v>
       </c>
       <c r="O59" s="19"/>
@@ -9335,7 +9930,7 @@
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>4</v>
       </c>
       <c r="C60" s="19">
@@ -9366,7 +9961,7 @@
         <v>21</v>
       </c>
       <c r="N60" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>4</v>
       </c>
       <c r="O60" s="19">
@@ -9399,7 +9994,7 @@
     </row>
     <row r="61" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B61" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>5</v>
       </c>
       <c r="C61" s="19">
@@ -9428,7 +10023,7 @@
         <v>17</v>
       </c>
       <c r="N61" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>5</v>
       </c>
       <c r="O61" s="19"/>
@@ -9457,7 +10052,7 @@
     </row>
     <row r="62" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B62" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>6</v>
       </c>
       <c r="C62" s="19">
@@ -9482,7 +10077,7 @@
         <v>7</v>
       </c>
       <c r="N62" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>6</v>
       </c>
       <c r="O62" s="19"/>
@@ -9507,7 +10102,7 @@
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>7</v>
       </c>
       <c r="C63" s="19">
@@ -9528,7 +10123,7 @@
         <v>5</v>
       </c>
       <c r="N63" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>7</v>
       </c>
       <c r="O63" s="19"/>
@@ -9584,4 +10179,4310 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB72F86-E84C-0048-9B11-5405952A4982}">
+  <dimension ref="B2:AP93"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AU93" sqref="AU93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="162" width="3.83203125" style="27" customWidth="1"/>
+    <col min="163" max="16384" width="10.83203125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="33">
+        <f t="shared" ref="E4:J4" si="0">D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J4" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K4" s="33">
+        <f>J4+1</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="33">
+        <f>K4+1</f>
+        <v>9</v>
+      </c>
+      <c r="X4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="33">
+        <f>X4+1</f>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="33">
+        <f t="shared" ref="Z4" si="1">Y4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA4" s="33">
+        <f t="shared" ref="AA4" si="2">Z4+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB4" s="33">
+        <f t="shared" ref="AB4" si="3">AA4+1</f>
+        <v>4</v>
+      </c>
+      <c r="AC4" s="33">
+        <f t="shared" ref="AC4" si="4">AB4+1</f>
+        <v>5</v>
+      </c>
+      <c r="AD4" s="33">
+        <f t="shared" ref="AD4" si="5">AC4+1</f>
+        <v>6</v>
+      </c>
+      <c r="AE4" s="33">
+        <f t="shared" ref="AE4" si="6">AD4+1</f>
+        <v>7</v>
+      </c>
+      <c r="AF4" s="33">
+        <f>AE4+1</f>
+        <v>8</v>
+      </c>
+      <c r="AG4" s="33">
+        <f>AF4+1</f>
+        <v>9</v>
+      </c>
+      <c r="AH4" s="33">
+        <f t="shared" ref="AH4:AM4" si="7">AG4+1</f>
+        <v>10</v>
+      </c>
+      <c r="AI4" s="33">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AJ4" s="33">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AK4" s="33">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AL4" s="33">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AM4" s="33">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="34">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="W5" s="34">
+        <v>0</v>
+      </c>
+      <c r="X5" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+    </row>
+    <row r="6" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="34">
+        <f>B5+1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="W6" s="34">
+        <f>W5+1</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+    </row>
+    <row r="7" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="34">
+        <f t="shared" ref="B7:B12" si="8">B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30">
+        <v>7</v>
+      </c>
+      <c r="E7" s="30">
+        <v>5</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="W7" s="34">
+        <f t="shared" ref="W7:W12" si="9">W6+1</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="30">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+    </row>
+    <row r="8" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="34">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>3</v>
+      </c>
+      <c r="H8" s="30">
+        <v>5</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="W8" s="34">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="30">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="30">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="30">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+    </row>
+    <row r="9" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="34">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30">
+        <v>11</v>
+      </c>
+      <c r="G9" s="30">
+        <v>9</v>
+      </c>
+      <c r="H9" s="30">
+        <v>7</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="W9" s="34">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="30">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="30">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="30">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+    </row>
+    <row r="10" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="34">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30">
+        <v>13</v>
+      </c>
+      <c r="G10" s="30">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30">
+        <v>17</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="W10" s="34">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="30">
+        <v>17</v>
+      </c>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+    </row>
+    <row r="11" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="34">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>3</v>
+      </c>
+      <c r="K11" s="30">
+        <v>5</v>
+      </c>
+      <c r="L11" s="30">
+        <v>7</v>
+      </c>
+      <c r="W11" s="34">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="30">
+        <f>AG11+2</f>
+        <v>3</v>
+      </c>
+      <c r="AI11" s="30">
+        <f t="shared" ref="AI11:AM11" si="10">AH11+2</f>
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="30">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AK11" s="30">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AL11" s="30">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AM11" s="30">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="34">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30">
+        <v>15</v>
+      </c>
+      <c r="J12" s="30">
+        <v>13</v>
+      </c>
+      <c r="K12" s="30">
+        <v>11</v>
+      </c>
+      <c r="L12" s="30">
+        <v>9</v>
+      </c>
+      <c r="W12" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="30">
+        <f t="shared" ref="AH12:AJ12" si="11">AI12+2</f>
+        <v>23</v>
+      </c>
+      <c r="AI12" s="30">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="AJ12" s="30">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="AK12" s="30">
+        <f>AL12+2</f>
+        <v>17</v>
+      </c>
+      <c r="AL12" s="30">
+        <v>15</v>
+      </c>
+      <c r="AM12" s="32"/>
+    </row>
+    <row r="13" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="34">
+        <f>B12+1</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30">
+        <v>17</v>
+      </c>
+      <c r="J13" s="30">
+        <v>19</v>
+      </c>
+      <c r="K13" s="30">
+        <v>21</v>
+      </c>
+      <c r="L13" s="30">
+        <v>23</v>
+      </c>
+      <c r="W13" s="34">
+        <f>W12+1</f>
+        <v>8</v>
+      </c>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="30">
+        <v>25</v>
+      </c>
+      <c r="AJ13" s="30">
+        <f>AI13+2</f>
+        <v>27</v>
+      </c>
+      <c r="AK13" s="30">
+        <f>AJ13+2</f>
+        <v>29</v>
+      </c>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+    </row>
+    <row r="14" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="34">
+        <f>B13+1</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30">
+        <v>31</v>
+      </c>
+      <c r="J14" s="30">
+        <v>29</v>
+      </c>
+      <c r="K14" s="30">
+        <v>27</v>
+      </c>
+      <c r="L14" s="30">
+        <v>25</v>
+      </c>
+      <c r="W14" s="34">
+        <f>W13+1</f>
+        <v>9</v>
+      </c>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="30">
+        <v>31</v>
+      </c>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+    </row>
+    <row r="16" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="33">
+        <v>0</v>
+      </c>
+      <c r="D18" s="33">
+        <f>C18+1</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" ref="E18" si="12">D18+1</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" ref="F18" si="13">E18+1</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" ref="G18" si="14">F18+1</f>
+        <v>4</v>
+      </c>
+      <c r="H18" s="33">
+        <f t="shared" ref="H18" si="15">G18+1</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" ref="I18" si="16">H18+1</f>
+        <v>6</v>
+      </c>
+      <c r="J18" s="33">
+        <f t="shared" ref="J18" si="17">I18+1</f>
+        <v>7</v>
+      </c>
+      <c r="K18" s="33">
+        <f>J18+1</f>
+        <v>8</v>
+      </c>
+      <c r="L18" s="33">
+        <f>K18+1</f>
+        <v>9</v>
+      </c>
+      <c r="X18" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="33">
+        <f>X18+1</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="33">
+        <f t="shared" ref="Z18" si="18">Y18+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA18" s="33">
+        <f t="shared" ref="AA18" si="19">Z18+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB18" s="33">
+        <f t="shared" ref="AB18" si="20">AA18+1</f>
+        <v>4</v>
+      </c>
+      <c r="AC18" s="33">
+        <f t="shared" ref="AC18" si="21">AB18+1</f>
+        <v>5</v>
+      </c>
+      <c r="AD18" s="33">
+        <f t="shared" ref="AD18" si="22">AC18+1</f>
+        <v>6</v>
+      </c>
+      <c r="AE18" s="33">
+        <f t="shared" ref="AE18" si="23">AD18+1</f>
+        <v>7</v>
+      </c>
+      <c r="AF18" s="33">
+        <f>AE18+1</f>
+        <v>8</v>
+      </c>
+      <c r="AG18" s="33">
+        <f>AF18+1</f>
+        <v>9</v>
+      </c>
+      <c r="AH18" s="33">
+        <f t="shared" ref="AH18:AM18" si="24">AG18+1</f>
+        <v>10</v>
+      </c>
+      <c r="AI18" s="33">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="AJ18" s="33">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="AK18" s="33">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="AL18" s="33">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="AM18" s="33">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="34">
+        <v>0</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30">
+        <v>1</v>
+      </c>
+      <c r="J19" s="30">
+        <v>3</v>
+      </c>
+      <c r="K19" s="30">
+        <v>5</v>
+      </c>
+      <c r="L19" s="30">
+        <v>7</v>
+      </c>
+      <c r="W19" s="34">
+        <v>0</v>
+      </c>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="30">
+        <f>AG19+2</f>
+        <v>3</v>
+      </c>
+      <c r="AI19" s="30">
+        <f t="shared" ref="AI19:AM19" si="25">AH19+2</f>
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="30">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="AK19" s="30">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="AL19" s="30">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="AM19" s="30">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="34">
+        <f>B19+1</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30">
+        <v>15</v>
+      </c>
+      <c r="J20" s="30">
+        <v>13</v>
+      </c>
+      <c r="K20" s="30">
+        <v>11</v>
+      </c>
+      <c r="L20" s="30">
+        <v>9</v>
+      </c>
+      <c r="W20" s="34">
+        <f>W19+1</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="30">
+        <f t="shared" ref="AH20:AJ20" si="26">AI20+2</f>
+        <v>23</v>
+      </c>
+      <c r="AI20" s="30">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="AJ20" s="30">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="AK20" s="30">
+        <f>AL20+2</f>
+        <v>17</v>
+      </c>
+      <c r="AL20" s="30">
+        <v>15</v>
+      </c>
+      <c r="AM20" s="32"/>
+    </row>
+    <row r="21" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="34">
+        <f t="shared" ref="B21:B26" si="27">B20+1</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30">
+        <v>17</v>
+      </c>
+      <c r="J21" s="30">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30">
+        <v>21</v>
+      </c>
+      <c r="L21" s="30">
+        <v>23</v>
+      </c>
+      <c r="W21" s="34">
+        <f t="shared" ref="W21:W26" si="28">W20+1</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="30">
+        <v>25</v>
+      </c>
+      <c r="AJ21" s="30">
+        <f>AI21+2</f>
+        <v>27</v>
+      </c>
+      <c r="AK21" s="30">
+        <f>AJ21+2</f>
+        <v>29</v>
+      </c>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+    </row>
+    <row r="22" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="34">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30">
+        <v>31</v>
+      </c>
+      <c r="J22" s="30">
+        <v>29</v>
+      </c>
+      <c r="K22" s="30">
+        <v>27</v>
+      </c>
+      <c r="L22" s="30">
+        <v>25</v>
+      </c>
+      <c r="W22" s="34">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="30">
+        <v>31</v>
+      </c>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+    </row>
+    <row r="23" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="34">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30">
+        <v>1</v>
+      </c>
+      <c r="G23" s="30">
+        <v>3</v>
+      </c>
+      <c r="H23" s="30">
+        <v>5</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="W23" s="34">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="30">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="30">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="30">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+    </row>
+    <row r="24" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="34">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30">
+        <v>11</v>
+      </c>
+      <c r="G24" s="30">
+        <v>9</v>
+      </c>
+      <c r="H24" s="30">
+        <v>7</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="W24" s="34">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="30">
+        <v>15</v>
+      </c>
+      <c r="AD24" s="30">
+        <v>13</v>
+      </c>
+      <c r="AE24" s="30">
+        <v>11</v>
+      </c>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+    </row>
+    <row r="25" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="34">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30">
+        <v>13</v>
+      </c>
+      <c r="G25" s="30">
+        <v>15</v>
+      </c>
+      <c r="H25" s="30">
+        <v>17</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="W25" s="34">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="30">
+        <v>17</v>
+      </c>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+    </row>
+    <row r="26" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="34">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30">
+        <v>1</v>
+      </c>
+      <c r="E26" s="30">
+        <v>3</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="W26" s="34">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="30">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+    </row>
+    <row r="27" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="34">
+        <f>B26+1</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30">
+        <v>7</v>
+      </c>
+      <c r="E27" s="30">
+        <v>5</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="W27" s="34">
+        <f>W26+1</f>
+        <v>8</v>
+      </c>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="30">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+    </row>
+    <row r="28" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="34">
+        <f>B27+1</f>
+        <v>9</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="W28" s="34">
+        <f>W27+1</f>
+        <v>9</v>
+      </c>
+      <c r="X28" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+    </row>
+    <row r="30" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="33">
+        <v>0</v>
+      </c>
+      <c r="D32" s="33">
+        <f>C32+1</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="33">
+        <f t="shared" ref="E32" si="29">D32+1</f>
+        <v>2</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" ref="F32" si="30">E32+1</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" ref="G32" si="31">F32+1</f>
+        <v>4</v>
+      </c>
+      <c r="H32" s="33">
+        <f t="shared" ref="H32" si="32">G32+1</f>
+        <v>5</v>
+      </c>
+      <c r="I32" s="33">
+        <f t="shared" ref="I32" si="33">H32+1</f>
+        <v>6</v>
+      </c>
+      <c r="J32" s="33">
+        <f t="shared" ref="J32" si="34">I32+1</f>
+        <v>7</v>
+      </c>
+      <c r="K32" s="33">
+        <f>J32+1</f>
+        <v>8</v>
+      </c>
+      <c r="L32" s="33">
+        <f>K32+1</f>
+        <v>9</v>
+      </c>
+      <c r="M32" s="33">
+        <f t="shared" ref="M32:R32" si="35">L32+1</f>
+        <v>10</v>
+      </c>
+      <c r="N32" s="33">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="O32" s="33">
+        <f t="shared" si="35"/>
+        <v>12</v>
+      </c>
+      <c r="P32" s="33">
+        <f t="shared" si="35"/>
+        <v>13</v>
+      </c>
+      <c r="Q32" s="33">
+        <f t="shared" si="35"/>
+        <v>14</v>
+      </c>
+      <c r="R32" s="33">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="X32" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="33">
+        <f>X32+1</f>
+        <v>1</v>
+      </c>
+      <c r="Z32" s="33">
+        <f t="shared" ref="Z32" si="36">Y32+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA32" s="33">
+        <f t="shared" ref="AA32" si="37">Z32+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB32" s="33">
+        <f t="shared" ref="AB32" si="38">AA32+1</f>
+        <v>4</v>
+      </c>
+      <c r="AC32" s="33">
+        <f t="shared" ref="AC32" si="39">AB32+1</f>
+        <v>5</v>
+      </c>
+      <c r="AD32" s="33">
+        <f t="shared" ref="AD32" si="40">AC32+1</f>
+        <v>6</v>
+      </c>
+      <c r="AE32" s="33">
+        <f t="shared" ref="AE32" si="41">AD32+1</f>
+        <v>7</v>
+      </c>
+      <c r="AF32" s="33">
+        <f>AE32+1</f>
+        <v>8</v>
+      </c>
+      <c r="AG32" s="33">
+        <f>AF32+1</f>
+        <v>9</v>
+      </c>
+      <c r="AH32" s="33">
+        <f t="shared" ref="AH32:AM32" si="42">AG32+1</f>
+        <v>10</v>
+      </c>
+      <c r="AI32" s="33">
+        <f t="shared" si="42"/>
+        <v>11</v>
+      </c>
+      <c r="AJ32" s="33">
+        <f t="shared" si="42"/>
+        <v>12</v>
+      </c>
+      <c r="AK32" s="33">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="AL32" s="33">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="AM32" s="33">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="34">
+        <v>0</v>
+      </c>
+      <c r="C33" s="30">
+        <v>1</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="30">
+        <v>1</v>
+      </c>
+      <c r="W33" s="34">
+        <v>0</v>
+      </c>
+      <c r="X33" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+    </row>
+    <row r="34" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="34">
+        <f>B33+1</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30">
+        <v>1</v>
+      </c>
+      <c r="E34" s="30">
+        <v>3</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="30">
+        <v>3</v>
+      </c>
+      <c r="R34" s="29"/>
+      <c r="W34" s="34">
+        <f>W33+1</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+    </row>
+    <row r="35" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="34">
+        <f t="shared" ref="B35:B40" si="43">B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30">
+        <v>7</v>
+      </c>
+      <c r="E35" s="30">
+        <v>5</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="30">
+        <v>5</v>
+      </c>
+      <c r="R35" s="29"/>
+      <c r="W35" s="34">
+        <f t="shared" ref="W35:W40" si="44">W34+1</f>
+        <v>2</v>
+      </c>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="30">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="30">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="30">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+    </row>
+    <row r="36" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="34">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30">
+        <v>1</v>
+      </c>
+      <c r="G36" s="30">
+        <v>3</v>
+      </c>
+      <c r="H36" s="30">
+        <v>5</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30">
+        <v>1</v>
+      </c>
+      <c r="N36" s="30">
+        <v>3</v>
+      </c>
+      <c r="O36" s="30">
+        <v>5</v>
+      </c>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="W36" s="34">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+    </row>
+    <row r="37" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="34">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30">
+        <v>11</v>
+      </c>
+      <c r="G37" s="30">
+        <v>9</v>
+      </c>
+      <c r="H37" s="30">
+        <v>7</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30">
+        <v>11</v>
+      </c>
+      <c r="N37" s="30">
+        <v>9</v>
+      </c>
+      <c r="O37" s="30">
+        <v>7</v>
+      </c>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="W37" s="34">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+    </row>
+    <row r="38" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="34">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30">
+        <v>13</v>
+      </c>
+      <c r="G38" s="30">
+        <v>15</v>
+      </c>
+      <c r="H38" s="30">
+        <v>17</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="30">
+        <v>13</v>
+      </c>
+      <c r="N38" s="30">
+        <v>15</v>
+      </c>
+      <c r="O38" s="30">
+        <v>17</v>
+      </c>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="W38" s="34">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="30">
+        <v>7</v>
+      </c>
+      <c r="AD38" s="30">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="30">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+    </row>
+    <row r="39" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="34">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30">
+        <v>1</v>
+      </c>
+      <c r="J39" s="30">
+        <v>3</v>
+      </c>
+      <c r="K39" s="30">
+        <v>5</v>
+      </c>
+      <c r="L39" s="30">
+        <v>7</v>
+      </c>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="W39" s="34">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="30">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="30">
+        <f>AB39+2</f>
+        <v>11</v>
+      </c>
+      <c r="AD39" s="30">
+        <f t="shared" ref="AD39:AF39" si="45">AC39+2</f>
+        <v>13</v>
+      </c>
+      <c r="AE39" s="30">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="AF39" s="30">
+        <f t="shared" si="45"/>
+        <v>17</v>
+      </c>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+    </row>
+    <row r="40" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="34">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30">
+        <v>15</v>
+      </c>
+      <c r="J40" s="30">
+        <v>13</v>
+      </c>
+      <c r="K40" s="30">
+        <v>11</v>
+      </c>
+      <c r="L40" s="30">
+        <v>9</v>
+      </c>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="W40" s="34">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="30">
+        <v>23</v>
+      </c>
+      <c r="AD40" s="30">
+        <v>21</v>
+      </c>
+      <c r="AE40" s="30">
+        <v>19</v>
+      </c>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+    </row>
+    <row r="41" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="34">
+        <f>B40+1</f>
+        <v>8</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30">
+        <v>17</v>
+      </c>
+      <c r="J41" s="30">
+        <v>19</v>
+      </c>
+      <c r="K41" s="30">
+        <v>21</v>
+      </c>
+      <c r="L41" s="30">
+        <v>23</v>
+      </c>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="W41" s="34">
+        <f>W40+1</f>
+        <v>8</v>
+      </c>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="30">
+        <v>25</v>
+      </c>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+    </row>
+    <row r="42" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="34">
+        <f>B41+1</f>
+        <v>9</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30">
+        <v>31</v>
+      </c>
+      <c r="J42" s="30">
+        <v>29</v>
+      </c>
+      <c r="K42" s="30">
+        <v>27</v>
+      </c>
+      <c r="L42" s="30">
+        <v>25</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="W42" s="34">
+        <f>W41+1</f>
+        <v>9</v>
+      </c>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+    </row>
+    <row r="43" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="34">
+        <f t="shared" ref="B43:B48" si="46">B42+1</f>
+        <v>10</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30">
+        <v>1</v>
+      </c>
+      <c r="G43" s="30">
+        <v>3</v>
+      </c>
+      <c r="H43" s="30">
+        <v>5</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="30">
+        <v>1</v>
+      </c>
+      <c r="N43" s="30">
+        <v>3</v>
+      </c>
+      <c r="O43" s="30">
+        <v>5</v>
+      </c>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="W43" s="34">
+        <f t="shared" ref="W43:W48" si="47">W42+1</f>
+        <v>10</v>
+      </c>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="28"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="31">
+        <v>7</v>
+      </c>
+      <c r="AJ43" s="31">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="31">
+        <v>3</v>
+      </c>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+    </row>
+    <row r="44" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="34">
+        <f t="shared" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30">
+        <v>11</v>
+      </c>
+      <c r="G44" s="30">
+        <v>9</v>
+      </c>
+      <c r="H44" s="30">
+        <v>7</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="30">
+        <v>11</v>
+      </c>
+      <c r="N44" s="30">
+        <v>9</v>
+      </c>
+      <c r="O44" s="30">
+        <v>7</v>
+      </c>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="W44" s="34">
+        <f t="shared" si="47"/>
+        <v>11</v>
+      </c>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="30">
+        <v>9</v>
+      </c>
+      <c r="AI44" s="30">
+        <f>AH44+2</f>
+        <v>11</v>
+      </c>
+      <c r="AJ44" s="30">
+        <f t="shared" ref="AJ44:AL44" si="48">AI44+2</f>
+        <v>13</v>
+      </c>
+      <c r="AK44" s="30">
+        <f t="shared" si="48"/>
+        <v>15</v>
+      </c>
+      <c r="AL44" s="30">
+        <f t="shared" si="48"/>
+        <v>17</v>
+      </c>
+      <c r="AM44" s="28"/>
+    </row>
+    <row r="45" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="34">
+        <f t="shared" si="46"/>
+        <v>12</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30">
+        <v>13</v>
+      </c>
+      <c r="G45" s="30">
+        <v>15</v>
+      </c>
+      <c r="H45" s="30">
+        <v>17</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="30">
+        <v>13</v>
+      </c>
+      <c r="N45" s="30">
+        <v>15</v>
+      </c>
+      <c r="O45" s="30">
+        <v>17</v>
+      </c>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="W45" s="34">
+        <f t="shared" si="47"/>
+        <v>12</v>
+      </c>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="30">
+        <v>31</v>
+      </c>
+      <c r="AH45" s="30">
+        <v>29</v>
+      </c>
+      <c r="AI45" s="30">
+        <v>27</v>
+      </c>
+      <c r="AJ45" s="30">
+        <v>25</v>
+      </c>
+      <c r="AK45" s="30">
+        <v>23</v>
+      </c>
+      <c r="AL45" s="30">
+        <v>21</v>
+      </c>
+      <c r="AM45" s="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="34">
+        <f t="shared" si="46"/>
+        <v>13</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30">
+        <v>1</v>
+      </c>
+      <c r="E46" s="30">
+        <v>3</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="30">
+        <v>3</v>
+      </c>
+      <c r="R46" s="29"/>
+      <c r="W46" s="34">
+        <f t="shared" si="47"/>
+        <v>13</v>
+      </c>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="30">
+        <v>33</v>
+      </c>
+      <c r="AI46" s="30">
+        <f>AH46+2</f>
+        <v>35</v>
+      </c>
+      <c r="AJ46" s="30">
+        <f t="shared" ref="AJ46:AL46" si="49">AI46+2</f>
+        <v>37</v>
+      </c>
+      <c r="AK46" s="30">
+        <f t="shared" si="49"/>
+        <v>39</v>
+      </c>
+      <c r="AL46" s="30">
+        <f t="shared" si="49"/>
+        <v>41</v>
+      </c>
+      <c r="AM46" s="32"/>
+    </row>
+    <row r="47" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="34">
+        <f t="shared" si="46"/>
+        <v>14</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30">
+        <v>7</v>
+      </c>
+      <c r="E47" s="30">
+        <v>5</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="30">
+        <v>5</v>
+      </c>
+      <c r="R47" s="29"/>
+      <c r="W47" s="34">
+        <f t="shared" si="47"/>
+        <v>14</v>
+      </c>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="30">
+        <v>47</v>
+      </c>
+      <c r="AJ47" s="30">
+        <v>45</v>
+      </c>
+      <c r="AK47" s="30">
+        <v>43</v>
+      </c>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+    </row>
+    <row r="48" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="34">
+        <f t="shared" si="46"/>
+        <v>15</v>
+      </c>
+      <c r="C48" s="30">
+        <v>1</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30">
+        <v>1</v>
+      </c>
+      <c r="W48" s="34">
+        <f t="shared" si="47"/>
+        <v>15</v>
+      </c>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="30">
+        <v>49</v>
+      </c>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+    </row>
+    <row r="49" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+    </row>
+    <row r="50" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+    </row>
+    <row r="51" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W51" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="33">
+        <v>0</v>
+      </c>
+      <c r="D52" s="33">
+        <f>C52+1</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="33">
+        <f t="shared" ref="E52" si="50">D52+1</f>
+        <v>2</v>
+      </c>
+      <c r="F52" s="33">
+        <f t="shared" ref="F52" si="51">E52+1</f>
+        <v>3</v>
+      </c>
+      <c r="G52" s="33">
+        <f t="shared" ref="G52" si="52">F52+1</f>
+        <v>4</v>
+      </c>
+      <c r="H52" s="33">
+        <f t="shared" ref="H52" si="53">G52+1</f>
+        <v>5</v>
+      </c>
+      <c r="I52" s="33">
+        <f t="shared" ref="I52" si="54">H52+1</f>
+        <v>6</v>
+      </c>
+      <c r="J52" s="33">
+        <f t="shared" ref="J52" si="55">I52+1</f>
+        <v>7</v>
+      </c>
+      <c r="K52" s="33">
+        <f>J52+1</f>
+        <v>8</v>
+      </c>
+      <c r="L52" s="33">
+        <f>K52+1</f>
+        <v>9</v>
+      </c>
+      <c r="M52" s="33">
+        <f t="shared" ref="M52:R52" si="56">L52+1</f>
+        <v>10</v>
+      </c>
+      <c r="N52" s="33">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="O52" s="33">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
+      <c r="P52" s="33">
+        <f t="shared" si="56"/>
+        <v>13</v>
+      </c>
+      <c r="Q52" s="33">
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="R52" s="33">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="W52" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="34">
+        <v>0</v>
+      </c>
+      <c r="C53" s="30">
+        <v>1</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="X53" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="33">
+        <f>X53+1</f>
+        <v>1</v>
+      </c>
+      <c r="Z53" s="33">
+        <f t="shared" ref="Z53" si="57">Y53+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA53" s="33">
+        <f t="shared" ref="AA53" si="58">Z53+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB53" s="33">
+        <f t="shared" ref="AB53" si="59">AA53+1</f>
+        <v>4</v>
+      </c>
+      <c r="AC53" s="33">
+        <f t="shared" ref="AC53" si="60">AB53+1</f>
+        <v>5</v>
+      </c>
+      <c r="AD53" s="33">
+        <f t="shared" ref="AD53" si="61">AC53+1</f>
+        <v>6</v>
+      </c>
+      <c r="AE53" s="33">
+        <f t="shared" ref="AE53" si="62">AD53+1</f>
+        <v>7</v>
+      </c>
+      <c r="AF53" s="33">
+        <f>AE53+1</f>
+        <v>8</v>
+      </c>
+      <c r="AG53" s="33">
+        <f>AF53+1</f>
+        <v>9</v>
+      </c>
+      <c r="AH53" s="33">
+        <f t="shared" ref="AH53:AM53" si="63">AG53+1</f>
+        <v>10</v>
+      </c>
+      <c r="AI53" s="33">
+        <f t="shared" si="63"/>
+        <v>11</v>
+      </c>
+      <c r="AJ53" s="33">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="AK53" s="33">
+        <f t="shared" si="63"/>
+        <v>13</v>
+      </c>
+      <c r="AL53" s="33">
+        <f t="shared" si="63"/>
+        <v>14</v>
+      </c>
+      <c r="AM53" s="33">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="34">
+        <f>B53+1</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30">
+        <v>1</v>
+      </c>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="W54" s="34">
+        <v>0</v>
+      </c>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="32"/>
+      <c r="AE54" s="32"/>
+      <c r="AF54" s="32"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+    </row>
+    <row r="55" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="34">
+        <f t="shared" ref="B55:B60" si="64">B54+1</f>
+        <v>2</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30">
+        <v>3</v>
+      </c>
+      <c r="E55" s="30">
+        <v>5</v>
+      </c>
+      <c r="F55" s="30">
+        <v>7</v>
+      </c>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="W55" s="34">
+        <f>W54+1</f>
+        <v>1</v>
+      </c>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="31">
+        <v>7</v>
+      </c>
+      <c r="AJ55" s="31">
+        <v>5</v>
+      </c>
+      <c r="AK55" s="31">
+        <v>3</v>
+      </c>
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+    </row>
+    <row r="56" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="34">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="30">
+        <v>1</v>
+      </c>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="W56" s="34">
+        <f t="shared" ref="W56:W61" si="65">W55+1</f>
+        <v>2</v>
+      </c>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+      <c r="AD56" s="32"/>
+      <c r="AE56" s="32"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="30">
+        <v>9</v>
+      </c>
+      <c r="AI56" s="30">
+        <f>AH56+2</f>
+        <v>11</v>
+      </c>
+      <c r="AJ56" s="30">
+        <f t="shared" ref="AJ56:AL56" si="66">AI56+2</f>
+        <v>13</v>
+      </c>
+      <c r="AK56" s="30">
+        <f t="shared" si="66"/>
+        <v>15</v>
+      </c>
+      <c r="AL56" s="30">
+        <f t="shared" si="66"/>
+        <v>17</v>
+      </c>
+      <c r="AM56" s="28"/>
+    </row>
+    <row r="57" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="34">
+        <f t="shared" si="64"/>
+        <v>4</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30">
+        <v>3</v>
+      </c>
+      <c r="I57" s="30">
+        <v>5</v>
+      </c>
+      <c r="J57" s="30">
+        <v>7</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="W57" s="34">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="30">
+        <v>31</v>
+      </c>
+      <c r="AH57" s="30">
+        <v>29</v>
+      </c>
+      <c r="AI57" s="30">
+        <v>27</v>
+      </c>
+      <c r="AJ57" s="30">
+        <v>25</v>
+      </c>
+      <c r="AK57" s="30">
+        <v>23</v>
+      </c>
+      <c r="AL57" s="30">
+        <v>21</v>
+      </c>
+      <c r="AM57" s="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="34">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30">
+        <v>17</v>
+      </c>
+      <c r="H58" s="30">
+        <v>15</v>
+      </c>
+      <c r="I58" s="30">
+        <v>13</v>
+      </c>
+      <c r="J58" s="30">
+        <v>11</v>
+      </c>
+      <c r="K58" s="30">
+        <v>9</v>
+      </c>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="W58" s="34">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="32"/>
+      <c r="AH58" s="30">
+        <v>33</v>
+      </c>
+      <c r="AI58" s="30">
+        <f>AH58+2</f>
+        <v>35</v>
+      </c>
+      <c r="AJ58" s="30">
+        <f t="shared" ref="AJ58:AL58" si="67">AI58+2</f>
+        <v>37</v>
+      </c>
+      <c r="AK58" s="30">
+        <f t="shared" si="67"/>
+        <v>39</v>
+      </c>
+      <c r="AL58" s="30">
+        <f t="shared" si="67"/>
+        <v>41</v>
+      </c>
+      <c r="AM58" s="32"/>
+    </row>
+    <row r="59" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="34">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="30">
+        <v>1</v>
+      </c>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="W59" s="34">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="32"/>
+      <c r="AH59" s="32"/>
+      <c r="AI59" s="30">
+        <v>47</v>
+      </c>
+      <c r="AJ59" s="30">
+        <v>45</v>
+      </c>
+      <c r="AK59" s="30">
+        <v>43</v>
+      </c>
+      <c r="AL59" s="32"/>
+      <c r="AM59" s="32"/>
+    </row>
+    <row r="60" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="34">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30">
+        <v>3</v>
+      </c>
+      <c r="O60" s="30">
+        <v>5</v>
+      </c>
+      <c r="P60" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="W60" s="34">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="32"/>
+      <c r="AI60" s="32"/>
+      <c r="AJ60" s="30">
+        <v>49</v>
+      </c>
+      <c r="AK60" s="32"/>
+      <c r="AL60" s="32"/>
+      <c r="AM60" s="32"/>
+    </row>
+    <row r="61" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="34">
+        <f>B60+1</f>
+        <v>8</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="30">
+        <v>17</v>
+      </c>
+      <c r="N61" s="30">
+        <v>15</v>
+      </c>
+      <c r="O61" s="30">
+        <v>13</v>
+      </c>
+      <c r="P61" s="30">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="30">
+        <v>9</v>
+      </c>
+      <c r="R61" s="29"/>
+      <c r="W61" s="34">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="29"/>
+      <c r="AF61" s="29"/>
+      <c r="AG61" s="28"/>
+      <c r="AH61" s="28"/>
+      <c r="AI61" s="28"/>
+      <c r="AJ61" s="28"/>
+      <c r="AK61" s="28"/>
+      <c r="AL61" s="28"/>
+      <c r="AM61" s="28"/>
+    </row>
+    <row r="62" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="34">
+        <f>B61+1</f>
+        <v>9</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30">
+        <v>19</v>
+      </c>
+      <c r="M62" s="30">
+        <f>L62+2</f>
+        <v>21</v>
+      </c>
+      <c r="N62" s="30">
+        <f t="shared" ref="N62:R62" si="68">M62+2</f>
+        <v>23</v>
+      </c>
+      <c r="O62" s="30">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="P62" s="30">
+        <f t="shared" si="68"/>
+        <v>27</v>
+      </c>
+      <c r="Q62" s="30">
+        <f t="shared" si="68"/>
+        <v>29</v>
+      </c>
+      <c r="R62" s="30">
+        <f t="shared" si="68"/>
+        <v>31</v>
+      </c>
+      <c r="W62" s="34">
+        <f>W61+1</f>
+        <v>8</v>
+      </c>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="30">
+        <v>7</v>
+      </c>
+      <c r="AD62" s="30">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="30">
+        <v>3</v>
+      </c>
+      <c r="AF62" s="29"/>
+      <c r="AG62" s="28"/>
+      <c r="AH62" s="28"/>
+      <c r="AI62" s="28"/>
+      <c r="AJ62" s="28"/>
+      <c r="AK62" s="28"/>
+      <c r="AL62" s="28"/>
+      <c r="AM62" s="28"/>
+    </row>
+    <row r="63" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W63" s="34">
+        <f>W62+1</f>
+        <v>9</v>
+      </c>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="30">
+        <v>9</v>
+      </c>
+      <c r="AC63" s="30">
+        <f>AB63+2</f>
+        <v>11</v>
+      </c>
+      <c r="AD63" s="30">
+        <f t="shared" ref="AD63:AF63" si="69">AC63+2</f>
+        <v>13</v>
+      </c>
+      <c r="AE63" s="30">
+        <f t="shared" si="69"/>
+        <v>15</v>
+      </c>
+      <c r="AF63" s="30">
+        <f t="shared" si="69"/>
+        <v>17</v>
+      </c>
+      <c r="AG63" s="28"/>
+      <c r="AH63" s="28"/>
+      <c r="AI63" s="28"/>
+      <c r="AJ63" s="28"/>
+      <c r="AK63" s="28"/>
+      <c r="AL63" s="28"/>
+      <c r="AM63" s="28"/>
+    </row>
+    <row r="64" spans="2:39" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="W64" s="34">
+        <f t="shared" ref="W64:W69" si="70">W63+1</f>
+        <v>10</v>
+      </c>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="30">
+        <v>23</v>
+      </c>
+      <c r="AD64" s="30">
+        <v>21</v>
+      </c>
+      <c r="AE64" s="30">
+        <v>19</v>
+      </c>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="28"/>
+      <c r="AH64" s="28"/>
+      <c r="AI64" s="28"/>
+      <c r="AJ64" s="28"/>
+      <c r="AK64" s="28"/>
+      <c r="AL64" s="28"/>
+      <c r="AM64" s="28"/>
+    </row>
+    <row r="65" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W65" s="34">
+        <f t="shared" si="70"/>
+        <v>11</v>
+      </c>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="32"/>
+      <c r="AC65" s="32"/>
+      <c r="AD65" s="30">
+        <v>25</v>
+      </c>
+      <c r="AE65" s="32"/>
+      <c r="AF65" s="32"/>
+      <c r="AG65" s="28"/>
+      <c r="AH65" s="28"/>
+      <c r="AI65" s="28"/>
+      <c r="AJ65" s="28"/>
+      <c r="AK65" s="28"/>
+      <c r="AL65" s="28"/>
+      <c r="AM65" s="28"/>
+    </row>
+    <row r="66" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="33">
+        <v>0</v>
+      </c>
+      <c r="D66" s="33">
+        <f>C66+1</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="33">
+        <f t="shared" ref="E66" si="71">D66+1</f>
+        <v>2</v>
+      </c>
+      <c r="F66" s="33">
+        <f t="shared" ref="F66" si="72">E66+1</f>
+        <v>3</v>
+      </c>
+      <c r="G66" s="33">
+        <f t="shared" ref="G66" si="73">F66+1</f>
+        <v>4</v>
+      </c>
+      <c r="H66" s="33">
+        <f t="shared" ref="H66" si="74">G66+1</f>
+        <v>5</v>
+      </c>
+      <c r="I66" s="33">
+        <f t="shared" ref="I66" si="75">H66+1</f>
+        <v>6</v>
+      </c>
+      <c r="J66" s="33">
+        <f t="shared" ref="J66" si="76">I66+1</f>
+        <v>7</v>
+      </c>
+      <c r="K66" s="33">
+        <f>J66+1</f>
+        <v>8</v>
+      </c>
+      <c r="L66" s="33">
+        <f>K66+1</f>
+        <v>9</v>
+      </c>
+      <c r="M66" s="33">
+        <f t="shared" ref="M66:R66" si="77">L66+1</f>
+        <v>10</v>
+      </c>
+      <c r="N66" s="33">
+        <f t="shared" si="77"/>
+        <v>11</v>
+      </c>
+      <c r="O66" s="33">
+        <f t="shared" si="77"/>
+        <v>12</v>
+      </c>
+      <c r="P66" s="33">
+        <f t="shared" si="77"/>
+        <v>13</v>
+      </c>
+      <c r="Q66" s="33">
+        <f t="shared" si="77"/>
+        <v>14</v>
+      </c>
+      <c r="R66" s="33">
+        <f t="shared" si="77"/>
+        <v>15</v>
+      </c>
+      <c r="W66" s="34">
+        <f t="shared" si="70"/>
+        <v>12</v>
+      </c>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="28"/>
+      <c r="AE66" s="28"/>
+      <c r="AF66" s="28"/>
+      <c r="AG66" s="28"/>
+      <c r="AH66" s="28"/>
+      <c r="AI66" s="28"/>
+      <c r="AJ66" s="28"/>
+      <c r="AK66" s="28"/>
+      <c r="AL66" s="28"/>
+      <c r="AM66" s="28"/>
+    </row>
+    <row r="67" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="34">
+        <v>0</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="30">
+        <v>1</v>
+      </c>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="W67" s="34">
+        <f t="shared" si="70"/>
+        <v>13</v>
+      </c>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="30">
+        <v>7</v>
+      </c>
+      <c r="Z67" s="30">
+        <v>5</v>
+      </c>
+      <c r="AA67" s="30">
+        <v>3</v>
+      </c>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="28"/>
+      <c r="AF67" s="28"/>
+      <c r="AG67" s="28"/>
+      <c r="AH67" s="28"/>
+      <c r="AI67" s="28"/>
+      <c r="AJ67" s="28"/>
+      <c r="AK67" s="28"/>
+      <c r="AL67" s="28"/>
+      <c r="AM67" s="28"/>
+    </row>
+    <row r="68" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="34">
+        <f>B67+1</f>
+        <v>1</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="30">
+        <v>3</v>
+      </c>
+      <c r="O68" s="30">
+        <v>5</v>
+      </c>
+      <c r="P68" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="W68" s="34">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="32"/>
+      <c r="Z68" s="30">
+        <v>9</v>
+      </c>
+      <c r="AA68" s="32"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
+      <c r="AD68" s="28"/>
+      <c r="AE68" s="28"/>
+      <c r="AF68" s="28"/>
+      <c r="AG68" s="28"/>
+      <c r="AH68" s="28"/>
+      <c r="AI68" s="28"/>
+      <c r="AJ68" s="28"/>
+      <c r="AK68" s="28"/>
+      <c r="AL68" s="28"/>
+      <c r="AM68" s="28"/>
+    </row>
+    <row r="69" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="34">
+        <f t="shared" ref="B69:B74" si="78">B68+1</f>
+        <v>2</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="30">
+        <v>17</v>
+      </c>
+      <c r="N69" s="30">
+        <v>15</v>
+      </c>
+      <c r="O69" s="30">
+        <v>13</v>
+      </c>
+      <c r="P69" s="30">
+        <v>11</v>
+      </c>
+      <c r="Q69" s="30">
+        <v>9</v>
+      </c>
+      <c r="R69" s="29"/>
+      <c r="W69" s="34">
+        <f t="shared" si="70"/>
+        <v>15</v>
+      </c>
+      <c r="X69" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="28"/>
+      <c r="AD69" s="28"/>
+      <c r="AE69" s="28"/>
+      <c r="AF69" s="28"/>
+      <c r="AG69" s="28"/>
+      <c r="AH69" s="28"/>
+      <c r="AI69" s="28"/>
+      <c r="AJ69" s="28"/>
+      <c r="AK69" s="28"/>
+      <c r="AL69" s="28"/>
+      <c r="AM69" s="28"/>
+    </row>
+    <row r="70" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="34">
+        <f t="shared" si="78"/>
+        <v>3</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30">
+        <v>19</v>
+      </c>
+      <c r="M70" s="30">
+        <f>L70+2</f>
+        <v>21</v>
+      </c>
+      <c r="N70" s="30">
+        <f t="shared" ref="N70:R70" si="79">M70+2</f>
+        <v>23</v>
+      </c>
+      <c r="O70" s="30">
+        <f t="shared" si="79"/>
+        <v>25</v>
+      </c>
+      <c r="P70" s="30">
+        <f t="shared" si="79"/>
+        <v>27</v>
+      </c>
+      <c r="Q70" s="30">
+        <f t="shared" si="79"/>
+        <v>29</v>
+      </c>
+      <c r="R70" s="30">
+        <f t="shared" si="79"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="34">
+        <f t="shared" si="78"/>
+        <v>4</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="30">
+        <v>1</v>
+      </c>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+    </row>
+    <row r="72" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="34">
+        <f t="shared" si="78"/>
+        <v>5</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="30">
+        <v>3</v>
+      </c>
+      <c r="I72" s="30">
+        <v>5</v>
+      </c>
+      <c r="J72" s="30">
+        <v>7</v>
+      </c>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="W72" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="34">
+        <f t="shared" si="78"/>
+        <v>6</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="30">
+        <v>17</v>
+      </c>
+      <c r="H73" s="30">
+        <v>15</v>
+      </c>
+      <c r="I73" s="30">
+        <v>13</v>
+      </c>
+      <c r="J73" s="30">
+        <v>11</v>
+      </c>
+      <c r="K73" s="30">
+        <v>9</v>
+      </c>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="W73" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="34">
+        <f t="shared" si="78"/>
+        <v>7</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30">
+        <v>1</v>
+      </c>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="X74" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="33">
+        <f>X74+1</f>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="33">
+        <f t="shared" ref="Z74" si="80">Y74+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA74" s="33">
+        <f t="shared" ref="AA74" si="81">Z74+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB74" s="33">
+        <f t="shared" ref="AB74" si="82">AA74+1</f>
+        <v>4</v>
+      </c>
+      <c r="AC74" s="33">
+        <f t="shared" ref="AC74" si="83">AB74+1</f>
+        <v>5</v>
+      </c>
+      <c r="AD74" s="33">
+        <f t="shared" ref="AD74" si="84">AC74+1</f>
+        <v>6</v>
+      </c>
+      <c r="AE74" s="33">
+        <f t="shared" ref="AE74" si="85">AD74+1</f>
+        <v>7</v>
+      </c>
+      <c r="AF74" s="33">
+        <f>AE74+1</f>
+        <v>8</v>
+      </c>
+      <c r="AG74" s="33">
+        <f>AF74+1</f>
+        <v>9</v>
+      </c>
+      <c r="AH74" s="33">
+        <f t="shared" ref="AH74:AP74" si="86">AG74+1</f>
+        <v>10</v>
+      </c>
+      <c r="AI74" s="33">
+        <f t="shared" si="86"/>
+        <v>11</v>
+      </c>
+      <c r="AJ74" s="33">
+        <f t="shared" si="86"/>
+        <v>12</v>
+      </c>
+      <c r="AK74" s="33">
+        <f t="shared" si="86"/>
+        <v>13</v>
+      </c>
+      <c r="AL74" s="33">
+        <f t="shared" si="86"/>
+        <v>14</v>
+      </c>
+      <c r="AM74" s="33">
+        <f t="shared" si="86"/>
+        <v>15</v>
+      </c>
+      <c r="AN74" s="33">
+        <f t="shared" si="86"/>
+        <v>16</v>
+      </c>
+      <c r="AO74" s="33">
+        <f t="shared" si="86"/>
+        <v>17</v>
+      </c>
+      <c r="AP74" s="33">
+        <f t="shared" si="86"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="34">
+        <f>B74+1</f>
+        <v>8</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30">
+        <v>3</v>
+      </c>
+      <c r="E75" s="30">
+        <v>5</v>
+      </c>
+      <c r="F75" s="30">
+        <v>7</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="W75" s="34">
+        <v>0</v>
+      </c>
+      <c r="X75" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="32"/>
+      <c r="Z75" s="32"/>
+      <c r="AA75" s="32"/>
+      <c r="AB75" s="32"/>
+      <c r="AC75" s="32"/>
+      <c r="AD75" s="32"/>
+      <c r="AE75" s="32"/>
+      <c r="AF75" s="32"/>
+      <c r="AG75" s="32"/>
+      <c r="AH75" s="32"/>
+      <c r="AI75" s="32"/>
+      <c r="AJ75" s="32"/>
+      <c r="AK75" s="32"/>
+      <c r="AL75" s="32"/>
+      <c r="AM75" s="32"/>
+      <c r="AN75" s="28"/>
+      <c r="AO75" s="28"/>
+      <c r="AP75" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="34">
+        <f>B75+1</f>
+        <v>9</v>
+      </c>
+      <c r="C76" s="30">
+        <v>1</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="W76" s="34">
+        <f>W75+1</f>
+        <v>1</v>
+      </c>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="32"/>
+      <c r="AC76" s="32"/>
+      <c r="AD76" s="32"/>
+      <c r="AE76" s="32"/>
+      <c r="AF76" s="32"/>
+      <c r="AG76" s="32"/>
+      <c r="AH76" s="32"/>
+      <c r="AI76" s="32"/>
+      <c r="AJ76" s="32"/>
+      <c r="AK76" s="32"/>
+      <c r="AL76" s="32"/>
+      <c r="AM76" s="29"/>
+      <c r="AN76" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO76" s="29"/>
+      <c r="AP76" s="28"/>
+    </row>
+    <row r="77" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W77" s="34">
+        <f t="shared" ref="W77:W82" si="87">W76+1</f>
+        <v>2</v>
+      </c>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA77" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="32"/>
+      <c r="AC77" s="32"/>
+      <c r="AD77" s="32"/>
+      <c r="AE77" s="32"/>
+      <c r="AF77" s="32"/>
+      <c r="AG77" s="32"/>
+      <c r="AH77" s="32"/>
+      <c r="AI77" s="32"/>
+      <c r="AJ77" s="32"/>
+      <c r="AK77" s="32"/>
+      <c r="AL77" s="32"/>
+      <c r="AM77" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="30">
+        <v>3</v>
+      </c>
+      <c r="AO77" s="30">
+        <v>1</v>
+      </c>
+      <c r="AP77" s="28"/>
+    </row>
+    <row r="78" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W78" s="34">
+        <f t="shared" si="87"/>
+        <v>3</v>
+      </c>
+      <c r="X78" s="32"/>
+      <c r="Y78" s="32"/>
+      <c r="Z78" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="29"/>
+      <c r="AE78" s="29"/>
+      <c r="AF78" s="28"/>
+      <c r="AG78" s="32"/>
+      <c r="AH78" s="32"/>
+      <c r="AI78" s="29"/>
+      <c r="AJ78" s="29"/>
+      <c r="AK78" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="29"/>
+      <c r="AM78" s="32"/>
+      <c r="AN78" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO78" s="29"/>
+      <c r="AP78" s="28"/>
+    </row>
+    <row r="79" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W79" s="34">
+        <f t="shared" si="87"/>
+        <v>4</v>
+      </c>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="32"/>
+      <c r="Z79" s="32"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD79" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="28"/>
+      <c r="AG79" s="32"/>
+      <c r="AH79" s="32"/>
+      <c r="AI79" s="29"/>
+      <c r="AJ79" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK79" s="30">
+        <v>3</v>
+      </c>
+      <c r="AL79" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM79" s="29"/>
+      <c r="AN79" s="28"/>
+      <c r="AO79" s="28"/>
+      <c r="AP79" s="28"/>
+    </row>
+    <row r="80" spans="2:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W80" s="34">
+        <f t="shared" si="87"/>
+        <v>5</v>
+      </c>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="30">
+        <f>AA80+2</f>
+        <v>3</v>
+      </c>
+      <c r="AC80" s="30">
+        <f t="shared" ref="AC80:AE80" si="88">AB80+2</f>
+        <v>5</v>
+      </c>
+      <c r="AD80" s="30">
+        <v>3</v>
+      </c>
+      <c r="AE80" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="28"/>
+      <c r="AG80" s="32"/>
+      <c r="AH80" s="32"/>
+      <c r="AI80" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ80" s="30">
+        <f>AI80+2</f>
+        <v>3</v>
+      </c>
+      <c r="AK80" s="30">
+        <f t="shared" ref="AK80:AM80" si="89">AJ80+2</f>
+        <v>5</v>
+      </c>
+      <c r="AL80" s="30">
+        <v>3</v>
+      </c>
+      <c r="AM80" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN80" s="28"/>
+      <c r="AO80" s="28"/>
+      <c r="AP80" s="28"/>
+    </row>
+    <row r="81" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W81" s="34">
+        <f t="shared" si="87"/>
+        <v>6</v>
+      </c>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="32"/>
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD81" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="28"/>
+      <c r="AF81" s="28"/>
+      <c r="AG81" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="28"/>
+      <c r="AI81" s="32"/>
+      <c r="AJ81" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK81" s="30">
+        <v>3</v>
+      </c>
+      <c r="AL81" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM81" s="28"/>
+      <c r="AN81" s="28"/>
+      <c r="AO81" s="28"/>
+      <c r="AP81" s="28"/>
+    </row>
+    <row r="82" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W82" s="34">
+        <f t="shared" si="87"/>
+        <v>7</v>
+      </c>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="28"/>
+      <c r="AE82" s="28"/>
+      <c r="AF82" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="31">
+        <v>3</v>
+      </c>
+      <c r="AH82" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI82" s="32"/>
+      <c r="AJ82" s="32"/>
+      <c r="AK82" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL82" s="28"/>
+      <c r="AM82" s="28"/>
+      <c r="AN82" s="28"/>
+      <c r="AO82" s="28"/>
+      <c r="AP82" s="28"/>
+    </row>
+    <row r="83" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W83" s="34">
+        <f>W82+1</f>
+        <v>8</v>
+      </c>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="32"/>
+      <c r="Z83" s="32"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
+      <c r="AD83" s="28"/>
+      <c r="AE83" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF83" s="30">
+        <f>AE83+2</f>
+        <v>3</v>
+      </c>
+      <c r="AG83" s="30">
+        <f>AF83+2</f>
+        <v>5</v>
+      </c>
+      <c r="AH83" s="30">
+        <v>3</v>
+      </c>
+      <c r="AI83" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="28"/>
+      <c r="AK83" s="28"/>
+      <c r="AL83" s="28"/>
+      <c r="AM83" s="28"/>
+      <c r="AN83" s="28"/>
+      <c r="AO83" s="28"/>
+      <c r="AP83" s="28"/>
+    </row>
+    <row r="84" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W84" s="34">
+        <f>W83+1</f>
+        <v>9</v>
+      </c>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="30">
+        <v>3</v>
+      </c>
+      <c r="AF84" s="30">
+        <v>5</v>
+      </c>
+      <c r="AG84" s="30">
+        <v>7</v>
+      </c>
+      <c r="AH84" s="30">
+        <v>5</v>
+      </c>
+      <c r="AI84" s="30">
+        <v>3</v>
+      </c>
+      <c r="AJ84" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="28"/>
+      <c r="AL84" s="28"/>
+      <c r="AM84" s="28"/>
+      <c r="AN84" s="28"/>
+      <c r="AO84" s="28"/>
+      <c r="AP84" s="28"/>
+    </row>
+    <row r="85" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W85" s="34">
+        <f t="shared" ref="W85:W93" si="90">W84+1</f>
+        <v>10</v>
+      </c>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="28"/>
+      <c r="AD85" s="32"/>
+      <c r="AE85" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="30">
+        <f>AE85+2</f>
+        <v>3</v>
+      </c>
+      <c r="AG85" s="30">
+        <f>AF85+2</f>
+        <v>5</v>
+      </c>
+      <c r="AH85" s="30">
+        <v>3</v>
+      </c>
+      <c r="AI85" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="32"/>
+      <c r="AK85" s="28"/>
+      <c r="AL85" s="28"/>
+      <c r="AM85" s="28"/>
+      <c r="AN85" s="28"/>
+      <c r="AO85" s="28"/>
+      <c r="AP85" s="28"/>
+    </row>
+    <row r="86" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W86" s="34">
+        <f t="shared" si="90"/>
+        <v>11</v>
+      </c>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="29"/>
+      <c r="AE86" s="29"/>
+      <c r="AF86" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG86" s="30">
+        <v>3</v>
+      </c>
+      <c r="AH86" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="29"/>
+      <c r="AJ86" s="29"/>
+      <c r="AK86" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL86" s="29"/>
+      <c r="AM86" s="29"/>
+      <c r="AN86" s="28"/>
+      <c r="AO86" s="28"/>
+      <c r="AP86" s="28"/>
+    </row>
+    <row r="87" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W87" s="34">
+        <f t="shared" si="90"/>
+        <v>12</v>
+      </c>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD87" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE87" s="29"/>
+      <c r="AF87" s="32"/>
+      <c r="AG87" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="32"/>
+      <c r="AI87" s="29"/>
+      <c r="AJ87" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK87" s="30">
+        <v>3</v>
+      </c>
+      <c r="AL87" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM87" s="29"/>
+      <c r="AN87" s="28"/>
+      <c r="AO87" s="28"/>
+      <c r="AP87" s="28"/>
+    </row>
+    <row r="88" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W88" s="34">
+        <f t="shared" si="90"/>
+        <v>13</v>
+      </c>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="30">
+        <f>AA88+2</f>
+        <v>3</v>
+      </c>
+      <c r="AC88" s="30">
+        <f t="shared" ref="AC88:AE88" si="91">AB88+2</f>
+        <v>5</v>
+      </c>
+      <c r="AD88" s="30">
+        <v>3</v>
+      </c>
+      <c r="AE88" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ88" s="30">
+        <f>AI88+2</f>
+        <v>3</v>
+      </c>
+      <c r="AK88" s="30">
+        <f t="shared" ref="AK88:AM88" si="92">AJ88+2</f>
+        <v>5</v>
+      </c>
+      <c r="AL88" s="30">
+        <v>3</v>
+      </c>
+      <c r="AM88" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN88" s="28"/>
+      <c r="AO88" s="28"/>
+      <c r="AP88" s="28"/>
+    </row>
+    <row r="89" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W89" s="34">
+        <f t="shared" si="90"/>
+        <v>14</v>
+      </c>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="32"/>
+      <c r="AB89" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD89" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="28"/>
+      <c r="AF89" s="28"/>
+      <c r="AG89" s="28"/>
+      <c r="AH89" s="28"/>
+      <c r="AI89" s="32"/>
+      <c r="AJ89" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="30">
+        <v>3</v>
+      </c>
+      <c r="AL89" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM89" s="28"/>
+      <c r="AN89" s="28"/>
+      <c r="AO89" s="28"/>
+      <c r="AP89" s="28"/>
+    </row>
+    <row r="90" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W90" s="34">
+        <f t="shared" si="90"/>
+        <v>15</v>
+      </c>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="32"/>
+      <c r="AC90" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="28"/>
+      <c r="AE90" s="28"/>
+      <c r="AF90" s="28"/>
+      <c r="AG90" s="28"/>
+      <c r="AH90" s="28"/>
+      <c r="AI90" s="32"/>
+      <c r="AJ90" s="32"/>
+      <c r="AK90" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL90" s="28"/>
+      <c r="AM90" s="29"/>
+      <c r="AN90" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO90" s="29"/>
+      <c r="AP90" s="28"/>
+    </row>
+    <row r="91" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W91" s="34">
+        <f t="shared" si="90"/>
+        <v>16</v>
+      </c>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="30">
+        <v>3</v>
+      </c>
+      <c r="AA91" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="28"/>
+      <c r="AC91" s="28"/>
+      <c r="AD91" s="28"/>
+      <c r="AE91" s="28"/>
+      <c r="AF91" s="28"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="28"/>
+      <c r="AI91" s="28"/>
+      <c r="AJ91" s="28"/>
+      <c r="AK91" s="28"/>
+      <c r="AL91" s="28"/>
+      <c r="AM91" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN91" s="30">
+        <v>3</v>
+      </c>
+      <c r="AO91" s="30">
+        <v>1</v>
+      </c>
+      <c r="AP91" s="28"/>
+    </row>
+    <row r="92" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W92" s="34">
+        <f t="shared" si="90"/>
+        <v>17</v>
+      </c>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="29"/>
+      <c r="AB92" s="28"/>
+      <c r="AC92" s="28"/>
+      <c r="AD92" s="28"/>
+      <c r="AE92" s="28"/>
+      <c r="AF92" s="28"/>
+      <c r="AG92" s="28"/>
+      <c r="AH92" s="28"/>
+      <c r="AI92" s="28"/>
+      <c r="AJ92" s="28"/>
+      <c r="AK92" s="28"/>
+      <c r="AL92" s="28"/>
+      <c r="AM92" s="32"/>
+      <c r="AN92" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO92" s="29"/>
+      <c r="AP92" s="28"/>
+    </row>
+    <row r="93" spans="23:42" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W93" s="34">
+        <f t="shared" si="90"/>
+        <v>18</v>
+      </c>
+      <c r="X93" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
+      <c r="AD93" s="28"/>
+      <c r="AE93" s="28"/>
+      <c r="AF93" s="28"/>
+      <c r="AG93" s="28"/>
+      <c r="AH93" s="28"/>
+      <c r="AI93" s="28"/>
+      <c r="AJ93" s="28"/>
+      <c r="AK93" s="28"/>
+      <c r="AL93" s="28"/>
+      <c r="AM93" s="28"/>
+      <c r="AN93" s="28"/>
+      <c r="AO93" s="28"/>
+      <c r="AP93" s="30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>